--- a/data/536/BIDN/SDDS/old/IndonesianGDP.xlsx
+++ b/data/536/BIDN/SDDS/old/IndonesianGDP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" tabRatio="774"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" tabRatio="774" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1. GDP - Current Prices" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'4. GDP - By Exp Constant Prices'!$B:$B</definedName>
     <definedName name="_xlnm.Print_Titles">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="212">
   <si>
     <t xml:space="preserve">    LAPANGAN USAHA</t>
   </si>
@@ -1436,22 +1436,25 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1481,19 +1484,16 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,14 +1816,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1" codeName="Sheet1"/>
-  <dimension ref="A1:XEC346"/>
+  <dimension ref="A1:XED346"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="BB9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:IV2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:IV2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:IV2"/>
-      <selection pane="bottomRight" activeCell="BG10" sqref="BG10"/>
+      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1831,116 +1831,116 @@
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="48" style="2" customWidth="1"/>
-    <col min="4" max="60" width="13" style="2" customWidth="1"/>
-    <col min="61" max="16357" width="8" style="2" customWidth="1"/>
+    <col min="4" max="61" width="13" style="2" customWidth="1"/>
+    <col min="62" max="16358" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="AP4" s="114"/>
       <c r="AQ4" s="114"/>
     </row>
-    <row r="5" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="136" t="s">
+    <row r="5" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="138">
+      <c r="C5" s="143"/>
+      <c r="D5" s="139">
         <v>2010</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="138">
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="139">
         <v>2011</v>
       </c>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="138">
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="139">
         <v>2012</v>
       </c>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="138">
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="139">
         <v>2013</v>
       </c>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="138">
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="139">
         <v>2014</v>
       </c>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="138">
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="139">
         <v>2015</v>
       </c>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="130" t="s">
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="130" t="s">
+      <c r="AI5" s="133"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="133"/>
+      <c r="AM5" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="AN5" s="131"/>
-      <c r="AO5" s="131"/>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="130" t="s">
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="133"/>
+      <c r="AP5" s="133"/>
+      <c r="AQ5" s="133"/>
+      <c r="AR5" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="131" t="s">
+      <c r="AS5" s="133"/>
+      <c r="AT5" s="133"/>
+      <c r="AU5" s="133"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="AX5" s="131"/>
-      <c r="AY5" s="131"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="131"/>
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="133"/>
+      <c r="AZ5" s="133"/>
+      <c r="BA5" s="133"/>
       <c r="BB5" s="134" t="s">
         <v>208</v>
       </c>
@@ -1951,12 +1951,13 @@
       <c r="BG5" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="BH5" s="149"/>
-    </row>
-    <row r="6" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
+      <c r="BH5" s="135"/>
+      <c r="BI5" s="136"/>
+    </row>
+    <row r="6" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="138"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
@@ -2128,15 +2129,18 @@
       <c r="BH6" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI6" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>-1</v>
       </c>
-      <c r="B7" s="132">
+      <c r="B7" s="130">
         <v>-2</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="15">
         <v>-3</v>
       </c>
@@ -2308,8 +2312,11 @@
       <c r="BH7" s="15">
         <v>-59</v>
       </c>
-    </row>
-    <row r="8" spans="1:60" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI7" s="15">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -2365,8 +2372,9 @@
       <c r="BF8" s="121"/>
       <c r="BG8" s="121"/>
       <c r="BH8" s="121"/>
-    </row>
-    <row r="9" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI8" s="121"/>
+    </row>
+    <row r="9" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>449668</v>
       </c>
       <c r="BA9" s="12">
-        <v>2012742.7999999998</v>
+        <v>2012742.8</v>
       </c>
       <c r="BB9" s="12">
         <v>503503.2</v>
@@ -2540,13 +2548,16 @@
         <v>2115086.1</v>
       </c>
       <c r="BG9" s="12">
-        <v>524612.19999999995</v>
+        <v>524832.19999999995</v>
       </c>
       <c r="BH9" s="12">
-        <v>596011.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>596258.6</v>
+      </c>
+      <c r="BI9" s="12">
+        <v>618569.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="25">
         <v>1</v>
@@ -2696,7 +2707,7 @@
         <v>409092.8</v>
       </c>
       <c r="AY10" s="27">
-        <v>412322.19999999995</v>
+        <v>412322.2</v>
       </c>
       <c r="AZ10" s="27">
         <v>313744</v>
@@ -2720,13 +2731,16 @@
         <v>1574977.4</v>
       </c>
       <c r="BG10" s="27">
-        <v>390667.19999999995</v>
+        <v>390887.2</v>
       </c>
       <c r="BH10" s="27">
-        <v>450052.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>450299.4</v>
+      </c>
+      <c r="BI10" s="27">
+        <v>474029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
@@ -2898,13 +2912,16 @@
         <v>473953.8</v>
       </c>
       <c r="BG11" s="27">
-        <v>120642</v>
+        <v>120858.2</v>
       </c>
       <c r="BH11" s="27">
-        <v>128260.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>128472.8</v>
+      </c>
+      <c r="BI11" s="27">
+        <v>117136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
@@ -3058,7 +3075,7 @@
         <v>53945.1</v>
       </c>
       <c r="BA12" s="27">
-        <v>238830.50000000003</v>
+        <v>238830.5</v>
       </c>
       <c r="BB12" s="27">
         <v>56934.1</v>
@@ -3076,13 +3093,16 @@
         <v>250457.8</v>
       </c>
       <c r="BG12" s="27">
-        <v>60228.800000000003</v>
+        <v>60223.5</v>
       </c>
       <c r="BH12" s="27">
-        <v>71545.399999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71553.8</v>
+      </c>
+      <c r="BI12" s="27">
+        <v>69304.100000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
@@ -3236,7 +3256,7 @@
         <v>118578</v>
       </c>
       <c r="BA13" s="27">
-        <v>517507.80000000005</v>
+        <v>517507.8</v>
       </c>
       <c r="BB13" s="27">
         <v>123138.3</v>
@@ -3259,8 +3279,11 @@
       <c r="BH13" s="27">
         <v>169648.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI13" s="27">
+        <v>210737.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
@@ -3414,7 +3437,7 @@
         <v>62931.199999999997</v>
       </c>
       <c r="BA14" s="27">
-        <v>256849.60000000003</v>
+        <v>256849.6</v>
       </c>
       <c r="BB14" s="27">
         <v>65359.5</v>
@@ -3429,16 +3452,19 @@
         <v>62652</v>
       </c>
       <c r="BF14" s="27">
-        <v>260189.59999999998</v>
+        <v>260189.6</v>
       </c>
       <c r="BG14" s="27">
-        <v>67831.100000000006</v>
+        <v>67838.2</v>
       </c>
       <c r="BH14" s="27">
-        <v>72191.199999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72209.7</v>
+      </c>
+      <c r="BI14" s="27">
+        <v>67938.399999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
@@ -3610,13 +3636,16 @@
         <v>30174</v>
       </c>
       <c r="BG15" s="27">
-        <v>8019.6</v>
+        <v>8021.6</v>
       </c>
       <c r="BH15" s="27">
-        <v>8406.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8414.4</v>
+      </c>
+      <c r="BI15" s="27">
+        <v>8912.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="25">
         <v>2</v>
@@ -3772,7 +3801,7 @@
         <v>27003.3</v>
       </c>
       <c r="BA16" s="27">
-        <v>104121.90000000001</v>
+        <v>104121.9</v>
       </c>
       <c r="BB16" s="27">
         <v>25467.5</v>
@@ -3787,7 +3816,7 @@
         <v>26139.4</v>
       </c>
       <c r="BF16" s="27">
-        <v>108639.79999999999</v>
+        <v>108639.8</v>
       </c>
       <c r="BG16" s="27">
         <v>23973.8</v>
@@ -3795,8 +3824,11 @@
       <c r="BH16" s="27">
         <v>27608.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI16" s="27">
+        <v>29372.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="25">
         <v>3</v>
@@ -3975,8 +4007,11 @@
       <c r="BH17" s="27">
         <v>118350.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI17" s="27">
+        <v>115167.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -4141,7 +4176,7 @@
         <v>231507.6</v>
       </c>
       <c r="BD18" s="12">
-        <v>239875.09999999998</v>
+        <v>239875.1</v>
       </c>
       <c r="BE18" s="12">
         <v>254738.9</v>
@@ -4155,8 +4190,11 @@
       <c r="BH18" s="12">
         <v>337953.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI18" s="12">
+        <v>413148.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="25">
         <v>1</v>
@@ -4312,7 +4350,7 @@
         <v>110759.1</v>
       </c>
       <c r="BA19" s="27">
-        <v>439602.80000000005</v>
+        <v>439602.8</v>
       </c>
       <c r="BB19" s="27">
         <v>94955.6</v>
@@ -4327,7 +4365,7 @@
         <v>85644.7</v>
       </c>
       <c r="BF19" s="27">
-        <v>332559.60000000003</v>
+        <v>332559.59999999998</v>
       </c>
       <c r="BG19" s="27">
         <v>104176.2</v>
@@ -4335,8 +4373,11 @@
       <c r="BH19" s="27">
         <v>108367.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI19" s="27">
+        <v>119822.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="25">
         <v>2</v>
@@ -4515,8 +4556,11 @@
       <c r="BH20" s="27">
         <v>116646.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI20" s="27">
+        <v>173456.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="25">
         <v>3</v>
@@ -4672,7 +4716,7 @@
         <v>23568.2</v>
       </c>
       <c r="BA21" s="27">
-        <v>96824.599999999991</v>
+        <v>96824.6</v>
       </c>
       <c r="BB21" s="27">
         <v>27035.1</v>
@@ -4695,8 +4739,11 @@
       <c r="BH21" s="27">
         <v>52531</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI21" s="27">
+        <v>55701.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="25">
         <v>4</v>
@@ -4852,7 +4899,7 @@
         <v>64073.2</v>
       </c>
       <c r="BA22" s="27">
-        <v>244595.59999999998</v>
+        <v>244595.6</v>
       </c>
       <c r="BB22" s="27">
         <v>61147.199999999997</v>
@@ -4867,7 +4914,7 @@
         <v>64788.9</v>
       </c>
       <c r="BF22" s="27">
-        <v>246830.69999999998</v>
+        <v>246830.7</v>
       </c>
       <c r="BG22" s="27">
         <v>61989.5</v>
@@ -4875,8 +4922,11 @@
       <c r="BH22" s="27">
         <v>60408.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI22" s="27">
+        <v>64167.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -5029,7 +5079,7 @@
         <v>798053.5</v>
       </c>
       <c r="AZ23" s="12">
-        <v>788810.79999999993</v>
+        <v>788810.8</v>
       </c>
       <c r="BA23" s="12">
         <v>3119593.8</v>
@@ -5041,10 +5091,10 @@
         <v>732564.5</v>
       </c>
       <c r="BD23" s="12">
-        <v>773433.49999999988</v>
+        <v>773433.5</v>
       </c>
       <c r="BE23" s="12">
-        <v>778421.70000000007</v>
+        <v>778421.7</v>
       </c>
       <c r="BF23" s="12">
         <v>3068041.7</v>
@@ -5055,8 +5105,11 @@
       <c r="BH23" s="12">
         <v>805622.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI23" s="12">
+        <v>828448.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="25">
         <v>1</v>
@@ -5227,7 +5280,7 @@
         <v>73264.2</v>
       </c>
       <c r="BF24" s="27">
-        <v>307606.39999999997</v>
+        <v>307606.40000000002</v>
       </c>
       <c r="BG24" s="27">
         <v>76459.3</v>
@@ -5235,8 +5288,11 @@
       <c r="BH24" s="27">
         <v>81569.399999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI24" s="27">
+        <v>78982.600000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="30" t="s">
         <v>159</v>
@@ -5399,10 +5455,10 @@
         <v>657492.80000000005</v>
       </c>
       <c r="BD25" s="32">
-        <v>697257.39999999991</v>
+        <v>697257.4</v>
       </c>
       <c r="BE25" s="32">
-        <v>705157.50000000012</v>
+        <v>705157.5</v>
       </c>
       <c r="BF25" s="32">
         <v>2760435.3</v>
@@ -5413,8 +5469,11 @@
       <c r="BH25" s="32">
         <v>724052.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI25" s="32">
+        <v>749465.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="25">
         <v>1</v>
@@ -5585,7 +5644,7 @@
         <v>268024.59999999998</v>
       </c>
       <c r="BF26" s="27">
-        <v>1057000.7000000002</v>
+        <v>1057000.7</v>
       </c>
       <c r="BG26" s="27">
         <v>269993.90000000002</v>
@@ -5593,8 +5652,11 @@
       <c r="BH26" s="27">
         <v>278190.09999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI26" s="27">
+        <v>291590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="25">
         <v>2</v>
@@ -5773,8 +5835,11 @@
       <c r="BH27" s="27">
         <v>31465.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI27" s="27">
+        <v>33425.800000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="25">
         <v>3</v>
@@ -5953,8 +6018,11 @@
       <c r="BH28" s="27">
         <v>43693.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI28" s="27">
+        <v>45613.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="25">
         <v>4</v>
@@ -6133,8 +6201,11 @@
       <c r="BH29" s="27">
         <v>10120.299999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI29" s="27">
+        <v>10494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="25">
         <v>5</v>
@@ -6290,7 +6361,7 @@
         <v>20452.3</v>
       </c>
       <c r="BA30" s="27">
-        <v>80319.900000000009</v>
+        <v>80319.899999999994</v>
       </c>
       <c r="BB30" s="27">
         <v>20310.8</v>
@@ -6305,7 +6376,7 @@
         <v>19383.900000000001</v>
       </c>
       <c r="BF30" s="27">
-        <v>78689.200000000012</v>
+        <v>78689.2</v>
       </c>
       <c r="BG30" s="27">
         <v>18464</v>
@@ -6313,8 +6384,11 @@
       <c r="BH30" s="27">
         <v>18403.400000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI30" s="27">
+        <v>19623.900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="25">
         <v>6</v>
@@ -6485,7 +6559,7 @@
         <v>27472.6</v>
       </c>
       <c r="BF31" s="27">
-        <v>110562.29999999999</v>
+        <v>110562.3</v>
       </c>
       <c r="BG31" s="27">
         <v>27197.7</v>
@@ -6493,8 +6567,11 @@
       <c r="BH31" s="27">
         <v>27965.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI31" s="27">
+        <v>28313.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="25">
         <v>7</v>
@@ -6673,8 +6750,11 @@
       <c r="BH32" s="27">
         <v>81975.399999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI32" s="27">
+        <v>87884.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="25">
         <v>8</v>
@@ -6853,8 +6933,11 @@
       <c r="BH33" s="27">
         <v>22673.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI33" s="27">
+        <v>21360.799999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="25">
         <v>9</v>
@@ -7010,7 +7093,7 @@
         <v>25527.7</v>
       </c>
       <c r="BA34" s="27">
-        <v>93362.599999999991</v>
+        <v>93362.6</v>
       </c>
       <c r="BB34" s="27">
         <v>21497</v>
@@ -7033,8 +7116,11 @@
       <c r="BH34" s="27">
         <v>21831.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI34" s="27">
+        <v>23253.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="25">
         <v>10</v>
@@ -7190,7 +7276,7 @@
         <v>28870.2</v>
       </c>
       <c r="BA35" s="27">
-        <v>116068.59999999999</v>
+        <v>116068.6</v>
       </c>
       <c r="BB35" s="27">
         <v>30756.7</v>
@@ -7213,8 +7299,11 @@
       <c r="BH35" s="27">
         <v>33489.800000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI35" s="27">
+        <v>34813.800000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="25">
         <v>11</v>
@@ -7393,8 +7482,11 @@
       <c r="BH36" s="27">
         <v>65399.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI36" s="27">
+        <v>61794.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="25">
         <v>12</v>
@@ -7573,8 +7665,11 @@
       <c r="BH37" s="27">
         <v>11977.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI37" s="27">
+        <v>12042.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="25">
         <v>13</v>
@@ -7753,8 +7848,11 @@
       <c r="BH38" s="27">
         <v>60925</v>
       </c>
-    </row>
-    <row r="39" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI38" s="27">
+        <v>63010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="25">
         <v>14</v>
@@ -7933,8 +8031,11 @@
       <c r="BH39" s="27">
         <v>10265</v>
       </c>
-    </row>
-    <row r="40" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI39" s="27">
+        <v>10480.700000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="25">
         <v>15</v>
@@ -8105,7 +8206,7 @@
         <v>5907.4</v>
       </c>
       <c r="BF40" s="27">
-        <v>23120.800000000003</v>
+        <v>23120.799999999999</v>
       </c>
       <c r="BG40" s="27">
         <v>5711</v>
@@ -8113,8 +8214,11 @@
       <c r="BH40" s="27">
         <v>5676.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI40" s="27">
+        <v>5764.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>111</v>
       </c>
@@ -8267,10 +8371,10 @@
         <v>47285.5</v>
       </c>
       <c r="AZ41" s="12">
-        <v>48908.600000000006</v>
+        <v>48908.6</v>
       </c>
       <c r="BA41" s="12">
-        <v>185115.30000000002</v>
+        <v>185115.3</v>
       </c>
       <c r="BB41" s="12">
         <v>45933.599999999999</v>
@@ -8291,10 +8395,13 @@
         <v>46700.5</v>
       </c>
       <c r="BH41" s="12">
-        <v>46034.799999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46034.8</v>
+      </c>
+      <c r="BI41" s="12">
+        <v>47532.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="25">
         <v>1</v>
@@ -8450,7 +8557,7 @@
         <v>40094.300000000003</v>
       </c>
       <c r="BA42" s="27">
-        <v>151975.90000000002</v>
+        <v>151975.9</v>
       </c>
       <c r="BB42" s="27">
         <v>38087.9</v>
@@ -8473,8 +8580,11 @@
       <c r="BH42" s="27">
         <v>38622.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI42" s="27">
+        <v>39731.599999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="25">
         <v>2</v>
@@ -8630,7 +8740,7 @@
         <v>8814.2999999999993</v>
       </c>
       <c r="BA43" s="27">
-        <v>33139.399999999994</v>
+        <v>33139.4</v>
       </c>
       <c r="BB43" s="27">
         <v>7845.7</v>
@@ -8653,8 +8763,11 @@
       <c r="BH43" s="27">
         <v>7412.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI43" s="27">
+        <v>7800.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -8833,8 +8946,11 @@
       <c r="BH44" s="12">
         <v>2986.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI44" s="12">
+        <v>3001.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>
@@ -9005,7 +9121,7 @@
         <v>430540.2</v>
       </c>
       <c r="BF45" s="12">
-        <v>1652659.5999999999</v>
+        <v>1652659.6</v>
       </c>
       <c r="BG45" s="12">
         <v>428661.5</v>
@@ -9013,8 +9129,11 @@
       <c r="BH45" s="12">
         <v>422463.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI45" s="12">
+        <v>449341.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17" t="s">
         <v>118</v>
       </c>
@@ -9170,7 +9289,7 @@
         <v>520479.1</v>
       </c>
       <c r="BA46" s="12">
-        <v>2060378.7999999998</v>
+        <v>2060378.8</v>
       </c>
       <c r="BB46" s="12">
         <v>517642.4</v>
@@ -9188,13 +9307,16 @@
         <v>1995470.1</v>
       </c>
       <c r="BG46" s="12">
-        <v>519860.4</v>
+        <v>519884.5</v>
       </c>
       <c r="BH46" s="12">
-        <v>546356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>546386.1</v>
+      </c>
+      <c r="BI46" s="12">
+        <v>563512.69999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="25">
         <v>1</v>
@@ -9350,7 +9472,7 @@
         <v>107507.9</v>
       </c>
       <c r="BA47" s="27">
-        <v>416437.30000000005</v>
+        <v>416437.3</v>
       </c>
       <c r="BB47" s="27">
         <v>104647.9</v>
@@ -9365,7 +9487,7 @@
         <v>96749.1</v>
       </c>
       <c r="BF47" s="27">
-        <v>360071.19999999995</v>
+        <v>360071.2</v>
       </c>
       <c r="BG47" s="27">
         <v>98693.2</v>
@@ -9373,8 +9495,11 @@
       <c r="BH47" s="27">
         <v>100255.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI47" s="27">
+        <v>102009.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="25">
         <v>2</v>
@@ -9548,13 +9673,16 @@
         <v>1635398.9</v>
       </c>
       <c r="BG48" s="27">
-        <v>421167.2</v>
+        <v>421191.3</v>
       </c>
       <c r="BH48" s="27">
-        <v>446100.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>446130.5</v>
+      </c>
+      <c r="BI48" s="27">
+        <v>461502.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>122</v>
       </c>
@@ -9698,7 +9826,7 @@
         <v>797777</v>
       </c>
       <c r="AW49" s="12">
-        <v>209334.09999999998</v>
+        <v>209334.1</v>
       </c>
       <c r="AX49" s="12">
         <v>220897.5</v>
@@ -9710,16 +9838,16 @@
         <v>226174.6</v>
       </c>
       <c r="BA49" s="12">
-        <v>881547.49999999988</v>
+        <v>881547.5</v>
       </c>
       <c r="BB49" s="12">
-        <v>202880.89999999997</v>
+        <v>202880.9</v>
       </c>
       <c r="BC49" s="12">
         <v>131883.6</v>
       </c>
       <c r="BD49" s="12">
-        <v>171184.90000000002</v>
+        <v>171184.9</v>
       </c>
       <c r="BE49" s="12">
         <v>183751.3</v>
@@ -9728,13 +9856,16 @@
         <v>689700.7</v>
       </c>
       <c r="BG49" s="12">
-        <v>169660.59999999998</v>
+        <v>169660.6</v>
       </c>
       <c r="BH49" s="12">
         <v>175953.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI49" s="12">
+        <v>168853.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="25">
         <v>1</v>
@@ -9905,7 +10036,7 @@
         <v>1952.6</v>
       </c>
       <c r="BF50" s="27">
-        <v>7789.8000000000011</v>
+        <v>7789.8</v>
       </c>
       <c r="BG50" s="27">
         <v>1692.2</v>
@@ -9913,8 +10044,11 @@
       <c r="BH50" s="27">
         <v>2141.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI50" s="27">
+        <v>1617.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="25">
         <v>2</v>
@@ -10085,7 +10219,7 @@
         <v>100655.4</v>
       </c>
       <c r="BF51" s="27">
-        <v>380884.30000000005</v>
+        <v>380884.3</v>
       </c>
       <c r="BG51" s="27">
         <v>98963.5</v>
@@ -10093,8 +10227,11 @@
       <c r="BH51" s="27">
         <v>100177.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI51" s="27">
+        <v>102503.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="25">
         <v>3</v>
@@ -10273,8 +10410,11 @@
       <c r="BH52" s="27">
         <v>12276.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI52" s="27">
+        <v>12648.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="25">
         <v>4</v>
@@ -10430,7 +10570,7 @@
         <v>4426.5</v>
       </c>
       <c r="BA53" s="27">
-        <v>17416.199999999997</v>
+        <v>17416.2</v>
       </c>
       <c r="BB53" s="27">
         <v>4240</v>
@@ -10453,8 +10593,11 @@
       <c r="BH53" s="27">
         <v>3772.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI53" s="27">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="25">
         <v>5</v>
@@ -10633,8 +10776,11 @@
       <c r="BH54" s="27">
         <v>24573</v>
       </c>
-    </row>
-    <row r="55" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI54" s="27">
+        <v>16197.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="25">
         <v>6</v>
@@ -10813,8 +10959,11 @@
       <c r="BH55" s="27">
         <v>33012.300000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI55" s="27">
+        <v>31923.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
         <v>71</v>
       </c>
@@ -10958,10 +11107,10 @@
         <v>412709.69999999995</v>
       </c>
       <c r="AW56" s="12">
-        <v>106918.70000000001</v>
+        <v>106918.7</v>
       </c>
       <c r="AX56" s="12">
-        <v>108790.20000000001</v>
+        <v>108790.2</v>
       </c>
       <c r="AY56" s="12">
         <v>110803.7</v>
@@ -10970,7 +11119,7 @@
         <v>113698.6</v>
       </c>
       <c r="BA56" s="12">
-        <v>440211.20000000007</v>
+        <v>440211.20000000001</v>
       </c>
       <c r="BB56" s="12">
         <v>109741.9</v>
@@ -10985,7 +11134,7 @@
         <v>103201.3</v>
       </c>
       <c r="BF56" s="12">
-        <v>394230.89999999997</v>
+        <v>394230.9</v>
       </c>
       <c r="BG56" s="12">
         <v>101513.2</v>
@@ -10993,8 +11142,11 @@
       <c r="BH56" s="12">
         <v>103569.60000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI56" s="12">
+        <v>97655.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="25">
         <v>1</v>
@@ -11173,8 +11325,11 @@
       <c r="BH57" s="27">
         <v>19644.099999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI57" s="27">
+        <v>16438.599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="25">
         <v>2</v>
@@ -11330,7 +11485,7 @@
         <v>88112.6</v>
       </c>
       <c r="BA58" s="27">
-        <v>341003.70000000007</v>
+        <v>341003.7</v>
       </c>
       <c r="BB58" s="27">
         <v>86089.8</v>
@@ -11353,8 +11508,11 @@
       <c r="BH58" s="27">
         <v>83925.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI58" s="27">
+        <v>81217.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>133</v>
       </c>
@@ -11510,7 +11668,7 @@
         <v>162164.29999999999</v>
       </c>
       <c r="BA59" s="12">
-        <v>626532.60000000009</v>
+        <v>626532.6</v>
       </c>
       <c r="BB59" s="12">
         <v>166869</v>
@@ -11531,10 +11689,13 @@
         <v>181819.2</v>
       </c>
       <c r="BH59" s="12">
-        <v>185217.7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185263.6</v>
+      </c>
+      <c r="BI59" s="12">
+        <v>188894.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>135</v>
       </c>
@@ -11681,13 +11842,13 @@
         <v>164202.5</v>
       </c>
       <c r="AX60" s="12">
-        <v>162501.70000000004</v>
+        <v>162501.70000000001</v>
       </c>
       <c r="AY60" s="12">
         <v>170213.3</v>
       </c>
       <c r="AZ60" s="12">
-        <v>174516.30000000002</v>
+        <v>174516.3</v>
       </c>
       <c r="BA60" s="12">
         <v>671433.8</v>
@@ -11699,22 +11860,25 @@
         <v>163901.9</v>
       </c>
       <c r="BD60" s="12">
-        <v>168370.59999999998</v>
+        <v>168370.6</v>
       </c>
       <c r="BE60" s="12">
-        <v>179389.69999999998</v>
+        <v>179389.7</v>
       </c>
       <c r="BF60" s="12">
-        <v>696065.49999999988</v>
+        <v>696065.5</v>
       </c>
       <c r="BG60" s="12">
         <v>181860.5</v>
       </c>
       <c r="BH60" s="12">
-        <v>184453.90000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184423.2</v>
+      </c>
+      <c r="BI60" s="12">
+        <v>184410.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="25">
         <v>1</v>
@@ -11870,7 +12034,7 @@
         <v>103695.6</v>
       </c>
       <c r="BA61" s="27">
-        <v>405183.69999999995</v>
+        <v>405183.7</v>
       </c>
       <c r="BB61" s="27">
         <v>114798.3</v>
@@ -11893,8 +12057,11 @@
       <c r="BH61" s="27">
         <v>114586.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI61" s="27">
+        <v>114130.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="25">
         <v>2</v>
@@ -12071,10 +12238,13 @@
         <v>40503.5</v>
       </c>
       <c r="BH62" s="27">
-        <v>40597.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40578.400000000001</v>
+      </c>
+      <c r="BI62" s="27">
+        <v>40353.199999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="25">
         <v>3</v>
@@ -12245,16 +12415,19 @@
         <v>25575.9</v>
       </c>
       <c r="BF63" s="27">
-        <v>104115.20000000001</v>
+        <v>104115.2</v>
       </c>
       <c r="BG63" s="27">
         <v>25226</v>
       </c>
       <c r="BH63" s="27">
-        <v>25563.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25551.5</v>
+      </c>
+      <c r="BI63" s="27">
+        <v>26158.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="25">
         <v>4</v>
@@ -12410,7 +12583,7 @@
         <v>3465.1</v>
       </c>
       <c r="BA64" s="27">
-        <v>13737.300000000001</v>
+        <v>13737.3</v>
       </c>
       <c r="BB64" s="27">
         <v>3453.6</v>
@@ -12433,8 +12606,11 @@
       <c r="BH64" s="27">
         <v>3706.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI64" s="27">
+        <v>3768.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>141</v>
       </c>
@@ -12590,7 +12766,7 @@
         <v>112098</v>
       </c>
       <c r="BA65" s="12">
-        <v>439455.89999999997</v>
+        <v>439455.9</v>
       </c>
       <c r="BB65" s="12">
         <v>112980.1</v>
@@ -12613,8 +12789,11 @@
       <c r="BH65" s="12">
         <v>116310</v>
       </c>
-    </row>
-    <row r="66" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI65" s="12">
+        <v>118298.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>143</v>
       </c>
@@ -12793,8 +12972,11 @@
       <c r="BH66" s="12">
         <v>75452.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI66" s="12">
+        <v>73690.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>145</v>
       </c>
@@ -12968,13 +13150,16 @@
         <v>580175.19999999995</v>
       </c>
       <c r="BG67" s="12">
-        <v>137321.70000000001</v>
+        <v>137524.4</v>
       </c>
       <c r="BH67" s="12">
-        <v>156933.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157132</v>
+      </c>
+      <c r="BI67" s="12">
+        <v>127334.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>147</v>
       </c>
@@ -13148,13 +13333,16 @@
         <v>549396.5</v>
       </c>
       <c r="BG68" s="12">
-        <v>128575.7</v>
+        <v>128821</v>
       </c>
       <c r="BH68" s="12">
-        <v>140767.29999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140989.4</v>
+      </c>
+      <c r="BI68" s="12">
+        <v>132751.79999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>149</v>
       </c>
@@ -13328,13 +13516,16 @@
         <v>201149</v>
       </c>
       <c r="BG69" s="12">
-        <v>49524.3</v>
+        <v>49557.5</v>
       </c>
       <c r="BH69" s="12">
-        <v>52136.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52170.5</v>
+      </c>
+      <c r="BI69" s="12">
+        <v>60845.599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>151</v>
       </c>
@@ -13508,13 +13699,16 @@
         <v>302568.2</v>
       </c>
       <c r="BG70" s="12">
-        <v>76925.8</v>
+        <v>76927.100000000006</v>
       </c>
       <c r="BH70" s="12">
-        <v>77394.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77396.399999999994</v>
+      </c>
+      <c r="BI70" s="12">
+        <v>76493.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21"/>
@@ -13564,8 +13758,9 @@
       <c r="BF71" s="129"/>
       <c r="BG71" s="129"/>
       <c r="BH71" s="129"/>
-    </row>
-    <row r="72" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI71" s="129"/>
+    </row>
+    <row r="72" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>77</v>
       </c>
@@ -13709,16 +13904,16 @@
         <v>14236758.399999999</v>
       </c>
       <c r="AW72" s="27">
-        <v>3659885.9000000008</v>
+        <v>3659885.9</v>
       </c>
       <c r="AX72" s="27">
         <v>3800180</v>
       </c>
       <c r="AY72" s="27">
-        <v>3888261.9999999995</v>
+        <v>3888262</v>
       </c>
       <c r="AZ72" s="27">
-        <v>3833099.8999999994</v>
+        <v>3833099.9</v>
       </c>
       <c r="BA72" s="27">
         <v>15181427.800000001</v>
@@ -13733,19 +13928,22 @@
         <v>3758444.9</v>
       </c>
       <c r="BE72" s="27">
-        <v>3761760.5999999992</v>
+        <v>3761760.6</v>
       </c>
       <c r="BF72" s="27">
-        <v>14873005.299999999</v>
+        <v>14873005.300000001</v>
       </c>
       <c r="BG72" s="27">
-        <v>3829859.2000000007</v>
+        <v>3830586</v>
       </c>
       <c r="BH72" s="27">
-        <v>4025616.3000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4026365</v>
+      </c>
+      <c r="BI72" s="27">
+        <v>4152782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
         <v>87</v>
       </c>
@@ -13919,13 +14117,16 @@
         <v>561146.5</v>
       </c>
       <c r="BG73" s="27">
-        <v>140624.70000000001</v>
+        <v>139863.6</v>
       </c>
       <c r="BH73" s="27">
-        <v>150227.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149536.6</v>
+      </c>
+      <c r="BI73" s="27">
+        <v>172654.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
         <v>93</v>
       </c>
@@ -14069,16 +14270,16 @@
         <v>14838755.999999998</v>
       </c>
       <c r="AW74" s="16">
-        <v>3782626.8000000007</v>
+        <v>3782626.8</v>
       </c>
       <c r="AX74" s="16">
         <v>3964191.2</v>
       </c>
       <c r="AY74" s="16">
-        <v>4067226.5999999996</v>
+        <v>4067226.6</v>
       </c>
       <c r="AZ74" s="16">
-        <v>4018490.7999999993</v>
+        <v>4018490.8</v>
       </c>
       <c r="BA74" s="16">
         <v>15832535.4</v>
@@ -14087,56 +14288,59 @@
         <v>3922556.8</v>
       </c>
       <c r="BC74" s="16">
-        <v>3687806.6999999997</v>
+        <v>3687806.7</v>
       </c>
       <c r="BD74" s="16">
         <v>3894617.1</v>
       </c>
       <c r="BE74" s="16">
-        <v>3929171.1999999993</v>
+        <v>3929171.2</v>
       </c>
       <c r="BF74" s="16">
-        <v>15434151.799999999</v>
+        <v>15434151.800000001</v>
       </c>
       <c r="BG74" s="16">
-        <v>3970483.9000000008</v>
+        <v>3970449</v>
       </c>
       <c r="BH74" s="16">
-        <v>4175843.8000000003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4175901</v>
+      </c>
+      <c r="BI74" s="16">
+        <v>4325437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -15301,8 +15505,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BB5:BF5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:M5"/>
@@ -15311,11 +15513,13 @@
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="X5:AB5"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="AR5:AV5"/>
     <mergeCell ref="AW5:BA5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BB5:BF5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -15327,14 +15531,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEB51"/>
+  <dimension ref="A1:XEC51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="BA8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="BD8" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:IV65536"/>
       <selection pane="topRight" sqref="A1:IV65536"/>
       <selection pane="bottomLeft" sqref="A1:IV65536"/>
-      <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
+      <selection pane="bottomRight" activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15374,11 +15578,11 @@
     <col min="52" max="52" width="14" style="44" customWidth="1"/>
     <col min="53" max="56" width="12.75" style="44" customWidth="1"/>
     <col min="57" max="57" width="14" style="44" customWidth="1"/>
-    <col min="58" max="59" width="12.75" style="44" customWidth="1"/>
-    <col min="60" max="16356" width="9" style="44" customWidth="1"/>
+    <col min="58" max="60" width="12.75" style="44" customWidth="1"/>
+    <col min="61" max="16357" width="9" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="112" t="s">
         <v>162</v>
       </c>
@@ -15423,7 +15627,7 @@
       <c r="AO1" s="36"/>
       <c r="AP1" s="36"/>
     </row>
-    <row r="2" spans="1:59" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" s="39" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112" t="s">
         <v>163</v>
       </c>
@@ -15468,7 +15672,7 @@
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
     </row>
-    <row r="3" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
@@ -15510,7 +15714,7 @@
       <c r="AO3" s="115"/>
       <c r="AP3" s="115"/>
     </row>
-    <row r="4" spans="1:59" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="146">
@@ -15583,19 +15787,20 @@
       <c r="AX4" s="146"/>
       <c r="AY4" s="146"/>
       <c r="AZ4" s="47"/>
-      <c r="BA4" s="145" t="s">
+      <c r="BA4" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="BB4" s="145"/>
-      <c r="BC4" s="145"/>
-      <c r="BD4" s="145"/>
+      <c r="BB4" s="147"/>
+      <c r="BC4" s="147"/>
+      <c r="BD4" s="147"/>
       <c r="BE4" s="47"/>
-      <c r="BF4" s="145" t="s">
+      <c r="BF4" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="BG4" s="145"/>
-    </row>
-    <row r="5" spans="1:59" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG4" s="147"/>
+      <c r="BH4" s="147"/>
+    </row>
+    <row r="5" spans="1:60" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="49" t="s">
         <v>198</v>
@@ -15679,8 +15884,9 @@
       </c>
       <c r="BF5" s="122"/>
       <c r="BG5" s="122"/>
-    </row>
-    <row r="6" spans="1:59" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH5" s="122"/>
+    </row>
+    <row r="6" spans="1:60" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
@@ -15832,8 +16038,11 @@
       <c r="BG6" s="123" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH6" s="123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="58">
         <v>-1</v>
@@ -16009,8 +16218,11 @@
       <c r="BG7" s="59">
         <v>-58</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH7" s="59">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
@@ -16070,8 +16282,9 @@
       <c r="BE8" s="65"/>
       <c r="BF8" s="124"/>
       <c r="BG8" s="124"/>
-    </row>
-    <row r="9" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH8" s="124"/>
+    </row>
+    <row r="9" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>164</v>
       </c>
@@ -16214,43 +16427,46 @@
         <v>8274214.4286727076</v>
       </c>
       <c r="AV9" s="71">
-        <v>2150541.1197162699</v>
+        <v>2150541.12</v>
       </c>
       <c r="AW9" s="71">
-        <v>2213275.3985163434</v>
+        <v>2213275.4</v>
       </c>
       <c r="AX9" s="71">
-        <v>2298377.0840927693</v>
+        <v>2298377.08</v>
       </c>
       <c r="AY9" s="71">
-        <v>2303643.7832702878</v>
+        <v>2303643.7799999998</v>
       </c>
       <c r="AZ9" s="72">
-        <v>8965837.3855956681</v>
+        <v>8965837.3900000006</v>
       </c>
       <c r="BA9" s="125">
-        <v>2280068.9359553</v>
+        <v>2280068.94</v>
       </c>
       <c r="BB9" s="125">
-        <v>2133196.2961537</v>
+        <v>2133196.2999999998</v>
       </c>
       <c r="BC9" s="125">
-        <v>2232065.3442345001</v>
+        <v>2232065.34</v>
       </c>
       <c r="BD9" s="125">
-        <v>2254680.5248368001</v>
+        <v>2254680.52</v>
       </c>
       <c r="BE9" s="72">
-        <v>8900011.1011803001</v>
+        <v>8900011.0999999996</v>
       </c>
       <c r="BF9" s="125">
-        <v>2259473.8502680999</v>
+        <v>2259738.73</v>
       </c>
       <c r="BG9" s="125">
-        <v>2299804.1316394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2300296.15</v>
+      </c>
+      <c r="BH9" s="125">
+        <v>2296381.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74"/>
       <c r="B10" s="74" t="s">
         <v>165</v>
@@ -16391,43 +16607,46 @@
         <v>3255945.8910560599</v>
       </c>
       <c r="AV10" s="77">
-        <v>843463.05966559483</v>
+        <v>843463.06</v>
       </c>
       <c r="AW10" s="77">
-        <v>873368.34190038452</v>
+        <v>873368.34</v>
       </c>
       <c r="AX10" s="77">
-        <v>910396.48197822261</v>
+        <v>910396.48</v>
       </c>
       <c r="AY10" s="77">
-        <v>902663.79254099948</v>
+        <v>902663.79</v>
       </c>
       <c r="AZ10" s="78">
-        <v>3529891.6760852016</v>
+        <v>3529891.68</v>
       </c>
       <c r="BA10" s="126">
-        <v>930079.74130583997</v>
+        <v>930079.74</v>
       </c>
       <c r="BB10" s="126">
-        <v>903786.31983407994</v>
+        <v>903786.32</v>
       </c>
       <c r="BC10" s="126">
-        <v>922755.28866798</v>
+        <v>922755.29</v>
       </c>
       <c r="BD10" s="126">
-        <v>913372.12109077</v>
+        <v>913372.12</v>
       </c>
       <c r="BE10" s="78">
-        <v>3669993.4708986999</v>
+        <v>3669993.47</v>
       </c>
       <c r="BF10" s="126">
-        <v>926439.77288810001</v>
+        <v>926657.33</v>
       </c>
       <c r="BG10" s="126">
-        <v>953410.23553290998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>955659.27</v>
+      </c>
+      <c r="BH10" s="126">
+        <v>951695.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="74" t="s">
         <v>166</v>
@@ -16568,43 +16787,46 @@
         <v>296092.19399960304</v>
       </c>
       <c r="AV11" s="77">
-        <v>77262.495501616067</v>
+        <v>77262.5</v>
       </c>
       <c r="AW11" s="77">
-        <v>80011.223459898669</v>
+        <v>80011.22</v>
       </c>
       <c r="AX11" s="77">
-        <v>81470.616965035311</v>
+        <v>81470.62</v>
       </c>
       <c r="AY11" s="77">
-        <v>82960.899103473028</v>
+        <v>82960.899999999994</v>
       </c>
       <c r="AZ11" s="78">
-        <v>321705.23503002303</v>
+        <v>321705.24</v>
       </c>
       <c r="BA11" s="126">
-        <v>78034.243083698995</v>
+        <v>78034.240000000005</v>
       </c>
       <c r="BB11" s="126">
-        <v>78732.509571406001</v>
+        <v>78732.509999999995</v>
       </c>
       <c r="BC11" s="126">
-        <v>79329.984003488004</v>
+        <v>79329.98</v>
       </c>
       <c r="BD11" s="126">
-        <v>80347.754227957994</v>
+        <v>80347.75</v>
       </c>
       <c r="BE11" s="78">
-        <v>316444.49088654999</v>
+        <v>316444.49</v>
       </c>
       <c r="BF11" s="126">
-        <v>76577.606414473004</v>
+        <v>76584.820000000007</v>
       </c>
       <c r="BG11" s="126">
-        <v>80954.061615789004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80931.67</v>
+      </c>
+      <c r="BH11" s="126">
+        <v>79895.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74"/>
       <c r="B12" s="74" t="s">
         <v>167</v>
@@ -16745,43 +16967,46 @@
         <v>1060517.0157618378</v>
       </c>
       <c r="AV12" s="77">
-        <v>276784.53320742253</v>
+        <v>276784.53000000003</v>
       </c>
       <c r="AW12" s="77">
-        <v>283181.5953305905</v>
+        <v>283181.59999999998</v>
       </c>
       <c r="AX12" s="77">
-        <v>289364.3699896484</v>
+        <v>289364.37</v>
       </c>
       <c r="AY12" s="77">
-        <v>295446.18160229584</v>
+        <v>295446.18</v>
       </c>
       <c r="AZ12" s="78">
-        <v>1144776.6801299574</v>
+        <v>1144776.68</v>
       </c>
       <c r="BA12" s="126">
-        <v>294576.24340271001</v>
+        <v>294576.24</v>
       </c>
       <c r="BB12" s="126">
-        <v>294777.41237251001</v>
+        <v>294777.40999999997</v>
       </c>
       <c r="BC12" s="126">
-        <v>297836.64240289002</v>
+        <v>297836.64</v>
       </c>
       <c r="BD12" s="126">
-        <v>299706.74300985999</v>
+        <v>299706.74</v>
       </c>
       <c r="BE12" s="78">
-        <v>1186897.041188</v>
+        <v>1186897.04</v>
       </c>
       <c r="BF12" s="126">
-        <v>300218.90591619001</v>
+        <v>300207.84000000003</v>
       </c>
       <c r="BG12" s="126">
-        <v>302914.83068471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302931.58</v>
+      </c>
+      <c r="BH12" s="126">
+        <v>307306.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="79" t="s">
         <v>168</v>
@@ -16922,43 +17147,46 @@
         <v>558969.25556108984</v>
       </c>
       <c r="AV13" s="77">
-        <v>146963.67319568613</v>
+        <v>146963.67000000001</v>
       </c>
       <c r="AW13" s="77">
-        <v>149090.21610296261</v>
+        <v>149090.22</v>
       </c>
       <c r="AX13" s="77">
-        <v>159486.38270081961</v>
+        <v>159486.38</v>
       </c>
       <c r="AY13" s="77">
-        <v>160964.37262623478</v>
+        <v>160964.37</v>
       </c>
       <c r="AZ13" s="78">
-        <v>616504.64462570311</v>
+        <v>616504.64</v>
       </c>
       <c r="BA13" s="126">
-        <v>163931.78336599001</v>
+        <v>163931.78</v>
       </c>
       <c r="BB13" s="126">
-        <v>157262.29051247</v>
+        <v>157262.29</v>
       </c>
       <c r="BC13" s="126">
-        <v>166506.16871381999</v>
+        <v>166506.17000000001</v>
       </c>
       <c r="BD13" s="126">
-        <v>165234.60578377999</v>
+        <v>165234.60999999999</v>
       </c>
       <c r="BE13" s="78">
-        <v>652934.84837606002</v>
+        <v>652934.85</v>
       </c>
       <c r="BF13" s="126">
-        <v>167955.14050211999</v>
+        <v>167955.14</v>
       </c>
       <c r="BG13" s="126">
-        <v>162039.81050024001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161757.56</v>
+      </c>
+      <c r="BH13" s="126">
+        <v>174191.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="79" t="s">
         <v>169</v>
@@ -17099,43 +17327,46 @@
         <v>1894012.5818703822</v>
       </c>
       <c r="AV14" s="77">
-        <v>492610.11860296107</v>
+        <v>492610.12</v>
       </c>
       <c r="AW14" s="77">
-        <v>506925.86221788847</v>
+        <v>506925.86</v>
       </c>
       <c r="AX14" s="77">
-        <v>521898.973688178</v>
+        <v>521898.97</v>
       </c>
       <c r="AY14" s="77">
-        <v>520833.54350119899</v>
+        <v>520833.54</v>
       </c>
       <c r="AZ14" s="78">
-        <v>2042268.4980102265</v>
+        <v>2042268.5</v>
       </c>
       <c r="BA14" s="126">
-        <v>480620.27999652002</v>
+        <v>480620.28</v>
       </c>
       <c r="BB14" s="126">
-        <v>407336.19892390002</v>
+        <v>407336.2</v>
       </c>
       <c r="BC14" s="126">
-        <v>445850.13789611001</v>
+        <v>445850.14</v>
       </c>
       <c r="BD14" s="126">
-        <v>462836.22980823001</v>
+        <v>462836.23</v>
       </c>
       <c r="BE14" s="78">
-        <v>1796642.8466248</v>
+        <v>1796642.85</v>
       </c>
       <c r="BF14" s="126">
-        <v>456650.761513</v>
+        <v>456701.93</v>
       </c>
       <c r="BG14" s="126">
-        <v>463945.35225583002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>463316.71</v>
+      </c>
+      <c r="BH14" s="126">
+        <v>449785.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="74" t="s">
         <v>170</v>
@@ -17276,43 +17507,46 @@
         <v>826225.84622472909</v>
       </c>
       <c r="AV15" s="77">
-        <v>214668.78169387893</v>
+        <v>214668.78</v>
       </c>
       <c r="AW15" s="77">
-        <v>220028.00965881837</v>
+        <v>220028.01</v>
       </c>
       <c r="AX15" s="77">
-        <v>232081.2763769608</v>
+        <v>232081.28</v>
       </c>
       <c r="AY15" s="77">
-        <v>237201.56124808351</v>
+        <v>237201.56</v>
       </c>
       <c r="AZ15" s="78">
-        <v>903979.62897774158</v>
+        <v>903979.63</v>
       </c>
       <c r="BA15" s="126">
-        <v>227108.17241008001</v>
+        <v>227108.17</v>
       </c>
       <c r="BB15" s="126">
-        <v>189498.04021494999</v>
+        <v>189498.04</v>
       </c>
       <c r="BC15" s="126">
-        <v>211998.65925858001</v>
+        <v>211998.66</v>
       </c>
       <c r="BD15" s="126">
-        <v>224601.86133965</v>
+        <v>224601.86</v>
       </c>
       <c r="BE15" s="78">
-        <v>853206.73322326003</v>
+        <v>853206.73</v>
       </c>
       <c r="BF15" s="126">
-        <v>222939.08595243999</v>
+        <v>222939.09</v>
       </c>
       <c r="BG15" s="126">
-        <v>227036.03304226001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226246.24</v>
+      </c>
+      <c r="BH15" s="126">
+        <v>222939.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="74" t="s">
         <v>171</v>
@@ -17453,43 +17687,46 @@
         <v>382451.64419900544</v>
       </c>
       <c r="AV16" s="77">
-        <v>98788.457849110258</v>
+        <v>98788.46</v>
       </c>
       <c r="AW16" s="77">
-        <v>100670.14984579968</v>
+        <v>100670.15</v>
       </c>
       <c r="AX16" s="77">
-        <v>103678.98239390446</v>
+        <v>103678.98</v>
       </c>
       <c r="AY16" s="77">
-        <v>103573.43264800208</v>
+        <v>103573.43</v>
       </c>
       <c r="AZ16" s="78">
-        <v>406711.02273681643</v>
+        <v>406711.02</v>
       </c>
       <c r="BA16" s="126">
-        <v>105718.4723904</v>
+        <v>105718.47</v>
       </c>
       <c r="BB16" s="126">
-        <v>101803.52472435001</v>
+        <v>101803.52</v>
       </c>
       <c r="BC16" s="126">
-        <v>107788.46329160999</v>
+        <v>107788.46</v>
       </c>
       <c r="BD16" s="126">
-        <v>108581.20957653</v>
+        <v>108581.21</v>
       </c>
       <c r="BE16" s="78">
-        <v>423891.66998289002</v>
+        <v>423891.67</v>
       </c>
       <c r="BF16" s="126">
-        <v>108692.57708182</v>
+        <v>108692.58</v>
       </c>
       <c r="BG16" s="126">
-        <v>109503.80800767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109453.11</v>
+      </c>
+      <c r="BH16" s="126">
+        <v>110568.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75"/>
@@ -17549,8 +17786,9 @@
       <c r="BE17" s="78"/>
       <c r="BF17" s="126"/>
       <c r="BG17" s="126"/>
-    </row>
-    <row r="18" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH17" s="126"/>
+    </row>
+    <row r="18" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>172</v>
       </c>
@@ -17693,43 +17931,46 @@
         <v>180893.25324697621</v>
       </c>
       <c r="AV18" s="77">
-        <v>51368.359432450103</v>
+        <v>51368.36</v>
       </c>
       <c r="AW18" s="77">
-        <v>53041.838188813403</v>
+        <v>53041.84</v>
       </c>
       <c r="AX18" s="77">
-        <v>50719.4686221347</v>
+        <v>50719.47</v>
       </c>
       <c r="AY18" s="77">
-        <v>50963.546095560698</v>
+        <v>50963.55</v>
       </c>
       <c r="AZ18" s="78">
-        <v>206093.21233895893</v>
+        <v>206093.21</v>
       </c>
       <c r="BA18" s="126">
-        <v>50269.665975825003</v>
+        <v>50269.67</v>
       </c>
       <c r="BB18" s="126">
-        <v>49978.024076246002</v>
+        <v>49978.02</v>
       </c>
       <c r="BC18" s="126">
-        <v>50370.181689094003</v>
+        <v>50370.18</v>
       </c>
       <c r="BD18" s="126">
-        <v>50658.413275651998</v>
+        <v>50658.41</v>
       </c>
       <c r="BE18" s="78">
-        <v>201276.28501682001</v>
+        <v>201276.29</v>
       </c>
       <c r="BF18" s="126">
-        <v>48934.569036874003</v>
+        <v>48955.55</v>
       </c>
       <c r="BG18" s="126">
-        <v>52806.077326856001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52820.45</v>
+      </c>
+      <c r="BH18" s="126">
+        <v>52672.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
@@ -17789,8 +18030,9 @@
       <c r="BE19" s="78"/>
       <c r="BF19" s="126"/>
       <c r="BG19" s="126"/>
-    </row>
-    <row r="20" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH19" s="126"/>
+    </row>
+    <row r="20" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>173</v>
       </c>
@@ -17933,43 +18175,46 @@
         <v>1338638.5756208017</v>
       </c>
       <c r="AV20" s="71">
-        <v>241782.95793465897</v>
+        <v>241782.96</v>
       </c>
       <c r="AW20" s="71">
-        <v>350458.49358163861</v>
+        <v>350458.49</v>
       </c>
       <c r="AX20" s="71">
-        <v>340035.38213384303</v>
+        <v>340035.38</v>
       </c>
       <c r="AY20" s="71">
-        <v>462518.4572734856</v>
+        <v>462518.46</v>
       </c>
       <c r="AZ20" s="72">
-        <v>1394795.2909236262</v>
+        <v>1394795.29</v>
       </c>
       <c r="BA20" s="125">
-        <v>254831.08846919</v>
+        <v>254831.09</v>
       </c>
       <c r="BB20" s="125">
-        <v>319439.42947482999</v>
+        <v>319439.43</v>
       </c>
       <c r="BC20" s="125">
-        <v>377662.93831216998</v>
+        <v>377662.94</v>
       </c>
       <c r="BD20" s="125">
-        <v>481752.85891047999</v>
+        <v>481752.86</v>
       </c>
       <c r="BE20" s="72">
-        <v>1433686.3151666999</v>
+        <v>1433686.32</v>
       </c>
       <c r="BF20" s="125">
-        <v>264293.66587288002</v>
+        <v>264899.34999999998</v>
       </c>
       <c r="BG20" s="125">
-        <v>355553.03366404999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355435.73</v>
+      </c>
+      <c r="BH20" s="125">
+        <v>385073.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="74" t="s">
         <v>174</v>
@@ -18110,43 +18355,46 @@
         <v>821700.17680087395</v>
       </c>
       <c r="AV21" s="77">
-        <v>148593.32743598465</v>
+        <v>148593.32999999999</v>
       </c>
       <c r="AW21" s="77">
-        <v>221078.02273131849</v>
+        <v>221078.02</v>
       </c>
       <c r="AX21" s="77">
-        <v>206985.00121479036</v>
+        <v>206985</v>
       </c>
       <c r="AY21" s="77">
-        <v>291617.5008502602</v>
+        <v>291617.5</v>
       </c>
       <c r="AZ21" s="78">
-        <v>868273.85223235376</v>
+        <v>868273.85</v>
       </c>
       <c r="BA21" s="126">
-        <v>153688.35415174</v>
+        <v>153688.35</v>
       </c>
       <c r="BB21" s="126">
-        <v>189045.29477743001</v>
+        <v>189045.29</v>
       </c>
       <c r="BC21" s="126">
-        <v>220484.61563645999</v>
+        <v>220484.62</v>
       </c>
       <c r="BD21" s="126">
-        <v>299287.4618476</v>
+        <v>299287.46000000002</v>
       </c>
       <c r="BE21" s="78">
-        <v>862505.72641322995</v>
+        <v>862505.73</v>
       </c>
       <c r="BF21" s="126">
-        <v>148360.68741409</v>
+        <v>148632.95999999999</v>
       </c>
       <c r="BG21" s="126">
-        <v>213579.65815002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213752.44</v>
+      </c>
+      <c r="BH21" s="126">
+        <v>203175.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="74" t="s">
         <v>175</v>
@@ -18287,43 +18535,46 @@
         <v>516938.39881992759</v>
       </c>
       <c r="AV22" s="77">
-        <v>93189.63049867432</v>
+        <v>93189.63</v>
       </c>
       <c r="AW22" s="77">
-        <v>129380.47085032011</v>
+        <v>129380.47</v>
       </c>
       <c r="AX22" s="77">
-        <v>133050.38091905267</v>
+        <v>133050.38</v>
       </c>
       <c r="AY22" s="77">
-        <v>170900.95642322541</v>
+        <v>170900.96</v>
       </c>
       <c r="AZ22" s="78">
-        <v>526521.4386912724</v>
+        <v>526521.43999999994</v>
       </c>
       <c r="BA22" s="126">
-        <v>101142.73431745</v>
+        <v>101142.73</v>
       </c>
       <c r="BB22" s="126">
-        <v>130394.1346974</v>
+        <v>130394.13</v>
       </c>
       <c r="BC22" s="126">
-        <v>157178.32267570999</v>
+        <v>157178.32</v>
       </c>
       <c r="BD22" s="126">
-        <v>182465.39706287</v>
+        <v>182465.4</v>
       </c>
       <c r="BE22" s="78">
-        <v>571180.58875343006</v>
+        <v>571180.59</v>
       </c>
       <c r="BF22" s="126">
-        <v>115932.97845879001</v>
+        <v>116266.38</v>
       </c>
       <c r="BG22" s="126">
-        <v>141973.37551402999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141683.29</v>
+      </c>
+      <c r="BH22" s="126">
+        <v>181898.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="75"/>
@@ -18383,8 +18634,9 @@
       <c r="BE23" s="78"/>
       <c r="BF23" s="126"/>
       <c r="BG23" s="126"/>
-    </row>
-    <row r="24" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH23" s="126"/>
+    </row>
+    <row r="24" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82">
         <v>4</v>
       </c>
@@ -18527,43 +18779,46 @@
         <v>4791211.29918826</v>
       </c>
       <c r="AV24" s="71">
-        <v>1216322.2553902233</v>
+        <v>1216322.26</v>
       </c>
       <c r="AW24" s="71">
-        <v>1232871.5222707794</v>
+        <v>1232871.52</v>
       </c>
       <c r="AX24" s="71">
-        <v>1311737.6329485825</v>
+        <v>1311737.6299999999</v>
       </c>
       <c r="AY24" s="71">
-        <v>1360440.1138657418</v>
+        <v>1360440.11</v>
       </c>
       <c r="AZ24" s="72">
-        <v>5121371.5244753268</v>
+        <v>5121371.5199999996</v>
       </c>
       <c r="BA24" s="125">
-        <v>1249549.029298</v>
+        <v>1249549.03</v>
       </c>
       <c r="BB24" s="125">
-        <v>1128944.4138966999</v>
+        <v>1128944.4099999999</v>
       </c>
       <c r="BC24" s="125">
-        <v>1227578.5422348999</v>
+        <v>1227578.54</v>
       </c>
       <c r="BD24" s="125">
-        <v>1291713.6886103</v>
+        <v>1291713.69</v>
       </c>
       <c r="BE24" s="72">
-        <v>4897785.6740399003</v>
+        <v>4897785.67</v>
       </c>
       <c r="BF24" s="125">
-        <v>1269479.2821237999</v>
+        <v>1269479.28</v>
       </c>
       <c r="BG24" s="125">
-        <v>1247042.1450114001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1247042.1499999999</v>
+      </c>
+      <c r="BH24" s="125">
+        <v>1316887.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="74" t="s">
         <v>176</v>
@@ -18704,43 +18959,46 @@
         <v>3566926.7315366492</v>
       </c>
       <c r="AV25" s="77">
-        <v>916522.10428761505</v>
+        <v>916522.1</v>
       </c>
       <c r="AW25" s="77">
-        <v>928215.71954227099</v>
+        <v>928215.72</v>
       </c>
       <c r="AX25" s="77">
-        <v>972799.82784551103</v>
+        <v>972799.83</v>
       </c>
       <c r="AY25" s="77">
-        <v>1023908.92285667</v>
+        <v>1023908.92</v>
       </c>
       <c r="AZ25" s="78">
-        <v>3841446.5745320669</v>
+        <v>3841446.57</v>
       </c>
       <c r="BA25" s="126">
-        <v>950562.85238717997</v>
+        <v>950562.85</v>
       </c>
       <c r="BB25" s="126">
-        <v>879213.30318878999</v>
+        <v>879213.3</v>
       </c>
       <c r="BC25" s="126">
-        <v>920945.35476937005</v>
+        <v>920945.35</v>
       </c>
       <c r="BD25" s="126">
-        <v>969017.28379013995</v>
+        <v>969017.28</v>
       </c>
       <c r="BE25" s="78">
-        <v>3719738.7941355002</v>
+        <v>3719738.79</v>
       </c>
       <c r="BF25" s="126">
-        <v>961675.31508709001</v>
+        <v>961675.32</v>
       </c>
       <c r="BG25" s="126">
-        <v>946781.34326684999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>946781.34</v>
+      </c>
+      <c r="BH25" s="126">
+        <v>990381.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="74" t="s">
         <v>177</v>
@@ -18881,43 +19139,46 @@
         <v>499902.51555524499</v>
       </c>
       <c r="AV26" s="77">
-        <v>126142.27173517201</v>
+        <v>126142.27</v>
       </c>
       <c r="AW26" s="77">
-        <v>123924.60576615699</v>
+        <v>123924.61</v>
       </c>
       <c r="AX26" s="77">
-        <v>148804.30489009299</v>
+        <v>148804.29999999999</v>
       </c>
       <c r="AY26" s="77">
-        <v>144429.43592264099</v>
+        <v>144429.44</v>
       </c>
       <c r="AZ26" s="78">
-        <v>543300.61831406294</v>
+        <v>543300.62</v>
       </c>
       <c r="BA26" s="126">
-        <v>122403.32926339</v>
+        <v>122403.33</v>
       </c>
       <c r="BB26" s="126">
-        <v>107033.51830517</v>
+        <v>107033.52</v>
       </c>
       <c r="BC26" s="126">
-        <v>115682.0634186</v>
+        <v>115682.06</v>
       </c>
       <c r="BD26" s="126">
-        <v>132228.07134103001</v>
+        <v>132228.07</v>
       </c>
       <c r="BE26" s="78">
-        <v>477346.98232819</v>
+        <v>477346.98</v>
       </c>
       <c r="BF26" s="126">
-        <v>126624.42924386</v>
+        <v>126624.43</v>
       </c>
       <c r="BG26" s="126">
-        <v>127896.04209947999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127896.04</v>
+      </c>
+      <c r="BH26" s="126">
+        <v>129628.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="74" t="s">
         <v>178</v>
@@ -19058,43 +19319,46 @@
         <v>256440.4888256797</v>
       </c>
       <c r="AV27" s="77">
-        <v>60920.604598097801</v>
+        <v>60920.6</v>
       </c>
       <c r="AW27" s="77">
-        <v>61526.896054878503</v>
+        <v>61526.9</v>
       </c>
       <c r="AX27" s="77">
-        <v>64671.409458433802</v>
+        <v>64671.41</v>
       </c>
       <c r="AY27" s="77">
-        <v>66702.884232527605</v>
+        <v>66702.880000000005</v>
       </c>
       <c r="AZ27" s="78">
-        <v>253821.79434393771</v>
+        <v>253821.79</v>
       </c>
       <c r="BA27" s="126">
-        <v>63594.590718533997</v>
+        <v>63594.59</v>
       </c>
       <c r="BB27" s="126">
-        <v>40901.153986279998</v>
+        <v>40901.15</v>
       </c>
       <c r="BC27" s="126">
-        <v>55364.191945084</v>
+        <v>55364.19</v>
       </c>
       <c r="BD27" s="126">
-        <v>63716.934191123</v>
+        <v>63716.93</v>
       </c>
       <c r="BE27" s="78">
-        <v>223576.87084101999</v>
+        <v>223576.87</v>
       </c>
       <c r="BF27" s="126">
-        <v>68115.297183269999</v>
+        <v>68115.3</v>
       </c>
       <c r="BG27" s="126">
-        <v>60892.556581359997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60892.56</v>
+      </c>
+      <c r="BH27" s="126">
+        <v>62174.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="74" t="s">
         <v>179</v>
@@ -19235,43 +19499,46 @@
         <v>86978.220997174794</v>
       </c>
       <c r="AV28" s="77">
-        <v>20379.578439299999</v>
+        <v>20379.580000000002</v>
       </c>
       <c r="AW28" s="77">
-        <v>20045.297925758201</v>
+        <v>20045.3</v>
       </c>
       <c r="AX28" s="77">
-        <v>22281.793796445301</v>
+        <v>22281.79</v>
       </c>
       <c r="AY28" s="77">
-        <v>22234.4309743786</v>
+        <v>22234.43</v>
       </c>
       <c r="AZ28" s="78">
-        <v>84941.101135882098</v>
+        <v>84941.1</v>
       </c>
       <c r="BA28" s="126">
-        <v>20898.583919968001</v>
+        <v>20898.580000000002</v>
       </c>
       <c r="BB28" s="126">
-        <v>14697.976337257</v>
+        <v>14697.98</v>
       </c>
       <c r="BC28" s="126">
-        <v>18748.606201806</v>
+        <v>18748.61</v>
       </c>
       <c r="BD28" s="126">
-        <v>21383.691945339</v>
+        <v>21383.69</v>
       </c>
       <c r="BE28" s="78">
-        <v>75728.858404369996</v>
+        <v>75728.86</v>
       </c>
       <c r="BF28" s="126">
-        <v>20166.05549382</v>
+        <v>20166.060000000001</v>
       </c>
       <c r="BG28" s="126">
-        <v>20659.85226295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20659.849999999999</v>
+      </c>
+      <c r="BH28" s="126">
+        <v>21142.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="74" t="s">
         <v>180</v>
@@ -19412,19 +19679,19 @@
         <v>264525.3311158272</v>
       </c>
       <c r="AV29" s="77">
-        <v>64157.868948647498</v>
+        <v>64157.87</v>
       </c>
       <c r="AW29" s="77">
-        <v>68795.566574147102</v>
+        <v>68795.570000000007</v>
       </c>
       <c r="AX29" s="77">
-        <v>70575.979481253904</v>
+        <v>70575.98</v>
       </c>
       <c r="AY29" s="77">
-        <v>75215.804669999998</v>
+        <v>75215.8</v>
       </c>
       <c r="AZ29" s="78">
-        <v>278745.21967404848</v>
+        <v>278745.21999999997</v>
       </c>
       <c r="BA29" s="126">
         <v>62856</v>
@@ -19436,19 +19703,22 @@
         <v>83990</v>
       </c>
       <c r="BD29" s="126">
-        <v>79197.897976029999</v>
+        <v>79197.899999999994</v>
       </c>
       <c r="BE29" s="78">
-        <v>283819.89797603001</v>
+        <v>283819.90000000002</v>
       </c>
       <c r="BF29" s="126">
-        <v>63359.85707849</v>
+        <v>63359.86</v>
       </c>
       <c r="BG29" s="126">
-        <v>59607.296119099999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59607.3</v>
+      </c>
+      <c r="BH29" s="126">
+        <v>80889.960000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="74" t="s">
         <v>194</v>
@@ -19589,43 +19859,46 @@
         <v>116438.0111576842</v>
       </c>
       <c r="AV30" s="77">
-        <v>28199.8273813911</v>
+        <v>28199.83</v>
       </c>
       <c r="AW30" s="77">
-        <v>30363.436407567398</v>
+        <v>30363.439999999999</v>
       </c>
       <c r="AX30" s="77">
-        <v>32604.317476845499</v>
+        <v>32604.32</v>
       </c>
       <c r="AY30" s="77">
-        <v>27948.6352095248</v>
+        <v>27948.639999999999</v>
       </c>
       <c r="AZ30" s="78">
-        <v>119116.21647532881</v>
+        <v>119116.22</v>
       </c>
       <c r="BA30" s="126">
-        <v>29233.673008976999</v>
+        <v>29233.67</v>
       </c>
       <c r="BB30" s="126">
-        <v>29322.462079223998</v>
+        <v>29322.46</v>
       </c>
       <c r="BC30" s="126">
-        <v>32848.325900000003</v>
+        <v>32848.33</v>
       </c>
       <c r="BD30" s="126">
-        <v>26169.809366633999</v>
+        <v>26169.81</v>
       </c>
       <c r="BE30" s="78">
-        <v>117574.27035483001</v>
+        <v>117574.27</v>
       </c>
       <c r="BF30" s="126">
-        <v>29538.328037309999</v>
+        <v>29538.33</v>
       </c>
       <c r="BG30" s="126">
-        <v>31205.054681630001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31205.05</v>
+      </c>
+      <c r="BH30" s="126">
+        <v>32670.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="75"/>
@@ -19685,8 +19958,9 @@
       <c r="BE31" s="78"/>
       <c r="BF31" s="126"/>
       <c r="BG31" s="126"/>
-    </row>
-    <row r="32" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH31" s="126"/>
+    </row>
+    <row r="32" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="82">
         <v>5</v>
       </c>
@@ -19829,43 +20103,46 @@
         <v>338633.58018842305</v>
       </c>
       <c r="AV32" s="71">
-        <v>109427.18502340066</v>
+        <v>109427.19</v>
       </c>
       <c r="AW32" s="71">
-        <v>102486.85800517583</v>
+        <v>102486.86</v>
       </c>
       <c r="AX32" s="71">
-        <v>61840.955903816299</v>
+        <v>61840.959999999999</v>
       </c>
       <c r="AY32" s="71">
-        <v>-46832.200621743206</v>
+        <v>-46832.2</v>
       </c>
       <c r="AZ32" s="72">
-        <v>226922.79831064958</v>
+        <v>226922.8</v>
       </c>
       <c r="BA32" s="125">
-        <v>88332.183058662995</v>
+        <v>88332.18</v>
       </c>
       <c r="BB32" s="125">
         <v>120696.05</v>
       </c>
       <c r="BC32" s="125">
-        <v>-11186.112918433</v>
+        <v>-11186.11</v>
       </c>
       <c r="BD32" s="125">
-        <v>-99984.447459999996</v>
+        <v>-99984.45</v>
       </c>
       <c r="BE32" s="72">
-        <v>97857.672680229996</v>
+        <v>97857.67</v>
       </c>
       <c r="BF32" s="125">
-        <v>109653.28</v>
+        <v>109653.04</v>
       </c>
       <c r="BG32" s="125">
-        <v>100378.75949859001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100378.34</v>
+      </c>
+      <c r="BH32" s="125">
+        <v>14413.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="81"/>
       <c r="C33" s="75"/>
@@ -19925,8 +20202,9 @@
       <c r="BE33" s="78"/>
       <c r="BF33" s="126"/>
       <c r="BG33" s="126"/>
-    </row>
-    <row r="34" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH33" s="126"/>
+    </row>
+    <row r="34" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="82">
         <v>6</v>
       </c>
@@ -20069,43 +20347,46 @@
         <v>3116546.3060247796</v>
       </c>
       <c r="AV34" s="71">
-        <v>704599.27120950073</v>
+        <v>704599.27</v>
       </c>
       <c r="AW34" s="71">
-        <v>700513.52146733925</v>
+        <v>700513.52</v>
       </c>
       <c r="AX34" s="71">
-        <v>765856.8421702648</v>
+        <v>765856.84</v>
       </c>
       <c r="AY34" s="71">
-        <v>749547.91316872567</v>
+        <v>749547.91</v>
       </c>
       <c r="AZ34" s="72">
-        <v>2920517.5480158306</v>
+        <v>2920517.55</v>
       </c>
       <c r="BA34" s="125">
-        <v>681790.68711453001</v>
+        <v>681790.69</v>
       </c>
       <c r="BB34" s="125">
-        <v>571508.73782795004</v>
+        <v>571508.74</v>
       </c>
       <c r="BC34" s="125">
-        <v>671295.35474355996</v>
+        <v>671295.35</v>
       </c>
       <c r="BD34" s="125">
-        <v>725192.16291744995</v>
+        <v>725192.16</v>
       </c>
       <c r="BE34" s="72">
-        <v>2649786.9426035001</v>
+        <v>2649786.94</v>
       </c>
       <c r="BF34" s="125">
-        <v>763262.66116035997</v>
+        <v>763801.17</v>
       </c>
       <c r="BG34" s="125">
-        <v>848025.91687340999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>849705.99</v>
+      </c>
+      <c r="BH34" s="125">
+        <v>982494.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="84" t="s">
         <v>182</v>
@@ -20246,43 +20527,46 @@
         <v>2708682.4568642769</v>
       </c>
       <c r="AV35" s="77">
-        <v>607754.08959127613</v>
+        <v>607754.09</v>
       </c>
       <c r="AW35" s="77">
-        <v>598549.88197591866</v>
+        <v>598549.88</v>
       </c>
       <c r="AX35" s="77">
-        <v>650764.41913385631</v>
+        <v>650764.42000000004</v>
       </c>
       <c r="AY35" s="77">
-        <v>643636.90300405666</v>
+        <v>643636.9</v>
       </c>
       <c r="AZ35" s="78">
-        <v>2500705.2937051081</v>
+        <v>2500705.29</v>
       </c>
       <c r="BA35" s="126">
-        <v>600692.75626370998</v>
+        <v>600692.76</v>
       </c>
       <c r="BB35" s="126">
-        <v>531443.85334280995</v>
+        <v>531443.85</v>
       </c>
       <c r="BC35" s="126">
-        <v>626469.16789579997</v>
+        <v>626469.17000000004</v>
       </c>
       <c r="BD35" s="126">
-        <v>677301.82283372001</v>
+        <v>677301.82</v>
       </c>
       <c r="BE35" s="78">
-        <v>2435907.6003359999</v>
+        <v>2435907.6</v>
       </c>
       <c r="BF35" s="126">
-        <v>718859.73064099997</v>
+        <v>718859.73</v>
       </c>
       <c r="BG35" s="126">
-        <v>805457.29603756999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>805428.05</v>
+      </c>
+      <c r="BH35" s="126">
+        <v>935434.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="111" t="s">
         <v>183</v>
@@ -20423,43 +20707,46 @@
         <v>2465166.5020798566</v>
       </c>
       <c r="AV36" s="77">
-        <v>558778.3844265868</v>
+        <v>558778.38</v>
       </c>
       <c r="AW36" s="77">
-        <v>561660.54485026852</v>
+        <v>561660.54</v>
       </c>
       <c r="AX36" s="77">
-        <v>604575.44504264533</v>
+        <v>604575.44999999995</v>
       </c>
       <c r="AY36" s="77">
-        <v>600040.41503473697</v>
+        <v>600040.42000000004</v>
       </c>
       <c r="AZ36" s="78">
-        <v>2325054.7893542377</v>
+        <v>2325054.79</v>
       </c>
       <c r="BA36" s="126">
-        <v>567009.38100369996</v>
+        <v>567009.38</v>
       </c>
       <c r="BB36" s="126">
-        <v>506183.21910123999</v>
+        <v>506183.22</v>
       </c>
       <c r="BC36" s="126">
-        <v>597970.42828931997</v>
+        <v>597970.43000000005</v>
       </c>
       <c r="BD36" s="126">
-        <v>643135.22975661</v>
+        <v>643135.23</v>
       </c>
       <c r="BE36" s="78">
-        <v>2314298.2581508998</v>
+        <v>2314298.2599999998</v>
       </c>
       <c r="BF36" s="126">
-        <v>679826.09037240001</v>
+        <v>679826.09</v>
       </c>
       <c r="BG36" s="126">
-        <v>760137.27292144997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>760108.08</v>
+      </c>
+      <c r="BH36" s="126">
+        <v>892342.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80"/>
       <c r="B37" s="111" t="s">
         <v>184</v>
@@ -20600,43 +20887,46 @@
         <v>243515.95478442014</v>
       </c>
       <c r="AV37" s="77">
-        <v>48975.705164689389</v>
+        <v>48975.71</v>
       </c>
       <c r="AW37" s="77">
-        <v>36889.337125650192</v>
+        <v>36889.339999999997</v>
       </c>
       <c r="AX37" s="77">
-        <v>46188.974091210956</v>
+        <v>46188.97</v>
       </c>
       <c r="AY37" s="77">
-        <v>43596.487969319714</v>
+        <v>43596.49</v>
       </c>
       <c r="AZ37" s="78">
-        <v>175650.50435087024</v>
+        <v>175650.5</v>
       </c>
       <c r="BA37" s="126">
-        <v>33683.375260009998</v>
+        <v>33683.379999999997</v>
       </c>
       <c r="BB37" s="126">
-        <v>25260.634241566</v>
+        <v>25260.63</v>
       </c>
       <c r="BC37" s="126">
-        <v>28498.739606477</v>
+        <v>28498.74</v>
       </c>
       <c r="BD37" s="126">
-        <v>34166.593077104997</v>
+        <v>34166.589999999997</v>
       </c>
       <c r="BE37" s="78">
-        <v>121609.34218516</v>
+        <v>121609.34</v>
       </c>
       <c r="BF37" s="126">
-        <v>39033.640268597999</v>
+        <v>39033.64</v>
       </c>
       <c r="BG37" s="126">
-        <v>45320.023116117998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45319.97</v>
+      </c>
+      <c r="BH37" s="126">
+        <v>43092.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80"/>
       <c r="B38" s="81" t="s">
         <v>185</v>
@@ -20777,43 +21067,46 @@
         <v>407863.84916050278</v>
       </c>
       <c r="AV38" s="77">
-        <v>96845.181618224582</v>
+        <v>96845.18</v>
       </c>
       <c r="AW38" s="77">
-        <v>101963.63949142056</v>
+        <v>101963.64</v>
       </c>
       <c r="AX38" s="77">
-        <v>115092.42303640847</v>
+        <v>115092.42</v>
       </c>
       <c r="AY38" s="77">
-        <v>105911.01016466903</v>
+        <v>105911.01</v>
       </c>
       <c r="AZ38" s="78">
-        <v>419812.25431072258</v>
+        <v>419812.25</v>
       </c>
       <c r="BA38" s="126">
-        <v>81097.930850814999</v>
+        <v>81097.929999999993</v>
       </c>
       <c r="BB38" s="126">
-        <v>40064.884485142997</v>
+        <v>40064.879999999997</v>
       </c>
       <c r="BC38" s="126">
-        <v>44826.186847759003</v>
+        <v>44826.19</v>
       </c>
       <c r="BD38" s="126">
-        <v>47890.340083729003</v>
+        <v>47890.34</v>
       </c>
       <c r="BE38" s="78">
-        <v>213879.34226745</v>
+        <v>213879.34</v>
       </c>
       <c r="BF38" s="126">
-        <v>44402.930519358</v>
+        <v>44941.440000000002</v>
       </c>
       <c r="BG38" s="126">
-        <v>42568.620835847003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44277.94</v>
+      </c>
+      <c r="BH38" s="126">
+        <v>47060.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80"/>
       <c r="B39" s="81"/>
       <c r="C39" s="75"/>
@@ -20873,8 +21166,9 @@
       <c r="BE39" s="78"/>
       <c r="BF39" s="126"/>
       <c r="BG39" s="126"/>
-    </row>
-    <row r="40" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH39" s="126"/>
+    </row>
+    <row r="40" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="82">
         <v>7</v>
       </c>
@@ -21017,43 +21311,46 @@
         <v>3275145.29852344</v>
       </c>
       <c r="AV40" s="71">
-        <v>719331.35192499019</v>
+        <v>719331.35</v>
       </c>
       <c r="AW40" s="71">
-        <v>734999.73287744308</v>
+        <v>734999.73</v>
       </c>
       <c r="AX40" s="71">
-        <v>769324.49863944971</v>
+        <v>769324.5</v>
       </c>
       <c r="AY40" s="71">
-        <v>784918.1065672664</v>
+        <v>784918.11</v>
       </c>
       <c r="AZ40" s="72">
-        <v>3008573.6900091493</v>
+        <v>3008573.69</v>
       </c>
       <c r="BA40" s="125">
-        <v>687066.69841333001</v>
+        <v>687066.7</v>
       </c>
       <c r="BB40" s="125">
-        <v>563293.49564983998</v>
+        <v>563293.5</v>
       </c>
       <c r="BC40" s="125">
-        <v>568116.28770152002</v>
+        <v>568116.29</v>
       </c>
       <c r="BD40" s="125">
-        <v>654422.41153782001</v>
+        <v>654422.41</v>
       </c>
       <c r="BE40" s="72">
-        <v>2472898.8933024998</v>
+        <v>2472898.89</v>
       </c>
       <c r="BF40" s="125">
-        <v>719985.88898836996</v>
+        <v>719259.92</v>
       </c>
       <c r="BG40" s="125">
-        <v>793562.81219990004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>797599.65</v>
+      </c>
+      <c r="BH40" s="125">
+        <v>808097.91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
       <c r="B41" s="84" t="s">
         <v>182</v>
@@ -21194,43 +21491,46 @@
         <v>2753480.4992138552</v>
       </c>
       <c r="AV41" s="77">
-        <v>595310.69188019121</v>
+        <v>595310.68999999994</v>
       </c>
       <c r="AW41" s="77">
-        <v>606726.97867208207</v>
+        <v>606726.98</v>
       </c>
       <c r="AX41" s="77">
-        <v>635499.07073575002</v>
+        <v>635499.06999999995</v>
       </c>
       <c r="AY41" s="77">
-        <v>641986.76650243707</v>
+        <v>641986.77</v>
       </c>
       <c r="AZ41" s="78">
-        <v>2479523.5077904603</v>
+        <v>2479523.5099999998</v>
       </c>
       <c r="BA41" s="126">
-        <v>573368.56126002001</v>
+        <v>573368.56000000006</v>
       </c>
       <c r="BB41" s="126">
-        <v>491724.58974859002</v>
+        <v>491724.59</v>
       </c>
       <c r="BC41" s="126">
-        <v>491950.91654141998</v>
+        <v>491950.92</v>
       </c>
       <c r="BD41" s="126">
-        <v>554587.64351057005</v>
+        <v>554587.64</v>
       </c>
       <c r="BE41" s="78">
-        <v>2111631.7110605999</v>
+        <v>2111631.71</v>
       </c>
       <c r="BF41" s="126">
-        <v>625622.94646801997</v>
+        <v>625622.94999999995</v>
       </c>
       <c r="BG41" s="126">
-        <v>700048.91194851999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>699894.06</v>
+      </c>
+      <c r="BH41" s="126">
+        <v>706528.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80"/>
       <c r="B42" s="111" t="s">
         <v>183</v>
@@ -21371,43 +21671,46 @@
         <v>2317267.9092894737</v>
       </c>
       <c r="AV42" s="77">
-        <v>526287.90758610086</v>
+        <v>526287.91</v>
       </c>
       <c r="AW42" s="77">
-        <v>517363.76304659597</v>
+        <v>517363.76</v>
       </c>
       <c r="AX42" s="77">
-        <v>563627.57863040105</v>
+        <v>563627.57999999996</v>
       </c>
       <c r="AY42" s="77">
-        <v>555376.96440235828</v>
+        <v>555376.96</v>
       </c>
       <c r="AZ42" s="78">
-        <v>2162656.2136654565</v>
+        <v>2162656.21</v>
       </c>
       <c r="BA42" s="126">
-        <v>498665.28940349998</v>
+        <v>498665.29</v>
       </c>
       <c r="BB42" s="126">
-        <v>458114.87322319997</v>
+        <v>458114.87</v>
       </c>
       <c r="BC42" s="126">
-        <v>445693.14175140002</v>
+        <v>445693.14</v>
       </c>
       <c r="BD42" s="126">
-        <v>501206.65235766</v>
+        <v>501206.65</v>
       </c>
       <c r="BE42" s="78">
-        <v>1903679.9567358</v>
+        <v>1903679.96</v>
       </c>
       <c r="BF42" s="126">
-        <v>552752.23005365999</v>
+        <v>552752.23</v>
       </c>
       <c r="BG42" s="126">
-        <v>606320.51699554001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>606165.66</v>
+      </c>
+      <c r="BH42" s="126">
+        <v>622781.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="111" t="s">
         <v>184</v>
@@ -21548,43 +21851,46 @@
         <v>436212.58992438141</v>
       </c>
       <c r="AV43" s="77">
-        <v>69022.784294090307</v>
+        <v>69022.78</v>
       </c>
       <c r="AW43" s="77">
-        <v>89363.215625486118</v>
+        <v>89363.22</v>
       </c>
       <c r="AX43" s="77">
-        <v>71871.492105349011</v>
+        <v>71871.490000000005</v>
       </c>
       <c r="AY43" s="77">
-        <v>86609.802100078799</v>
+        <v>86609.8</v>
       </c>
       <c r="AZ43" s="78">
-        <v>316867.29412500421</v>
+        <v>316867.28999999998</v>
       </c>
       <c r="BA43" s="126">
-        <v>74703.271856520994</v>
+        <v>74703.27</v>
       </c>
       <c r="BB43" s="126">
-        <v>33609.716525390999</v>
+        <v>33609.72</v>
       </c>
       <c r="BC43" s="126">
-        <v>46257.774790019001</v>
+        <v>46257.77</v>
       </c>
       <c r="BD43" s="126">
-        <v>53380.991152903</v>
+        <v>53380.99</v>
       </c>
       <c r="BE43" s="78">
-        <v>207951.75432482999</v>
+        <v>207951.75</v>
       </c>
       <c r="BF43" s="126">
-        <v>72870.716414359005</v>
+        <v>72870.720000000001</v>
       </c>
       <c r="BG43" s="126">
-        <v>93728.394952987001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93728.39</v>
+      </c>
+      <c r="BH43" s="126">
+        <v>83747.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80"/>
       <c r="B44" s="81" t="s">
         <v>185</v>
@@ -21725,43 +22031,46 @@
         <v>521664.79930958489</v>
       </c>
       <c r="AV44" s="77">
-        <v>124020.66004479898</v>
+        <v>124020.66</v>
       </c>
       <c r="AW44" s="77">
-        <v>128272.75420536095</v>
+        <v>128272.75</v>
       </c>
       <c r="AX44" s="77">
-        <v>133825.42790369963</v>
+        <v>133825.43</v>
       </c>
       <c r="AY44" s="77">
-        <v>142931.34006482933</v>
+        <v>142931.34</v>
       </c>
       <c r="AZ44" s="78">
-        <v>529050.18221868889</v>
+        <v>529050.18000000005</v>
       </c>
       <c r="BA44" s="126">
-        <v>113698.13715331</v>
+        <v>113698.14</v>
       </c>
       <c r="BB44" s="126">
-        <v>71568.905901246995</v>
+        <v>71568.91</v>
       </c>
       <c r="BC44" s="126">
-        <v>76165.371160094001</v>
+        <v>76165.37</v>
       </c>
       <c r="BD44" s="126">
-        <v>99834.768027252998</v>
+        <v>99834.77</v>
       </c>
       <c r="BE44" s="78">
-        <v>361267.18224190001</v>
+        <v>361267.18</v>
       </c>
       <c r="BF44" s="126">
-        <v>94362.942520348995</v>
+        <v>93636.98</v>
       </c>
       <c r="BG44" s="126">
-        <v>93513.900251372994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97705.59</v>
+      </c>
+      <c r="BH44" s="126">
+        <v>101568.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80"/>
       <c r="B45" s="81"/>
       <c r="C45" s="75"/>
@@ -21821,8 +22130,9 @@
       <c r="BE45" s="78"/>
       <c r="BF45" s="126"/>
       <c r="BG45" s="126"/>
-    </row>
-    <row r="46" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH45" s="126"/>
+    </row>
+    <row r="46" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80"/>
       <c r="B46" s="81" t="s">
         <v>186</v>
@@ -21963,43 +22273,46 @@
         <v>73763.855581492651</v>
       </c>
       <c r="AV46" s="77">
-        <v>27917.003218487836</v>
+        <v>27916.99</v>
       </c>
       <c r="AW46" s="77">
-        <v>46543.300847352948</v>
+        <v>46543.3</v>
       </c>
       <c r="AX46" s="77">
-        <v>7983.7327680392191</v>
+        <v>7983.74</v>
       </c>
       <c r="AY46" s="77">
-        <v>-76872.70648479322</v>
+        <v>-76872.7</v>
       </c>
       <c r="AZ46" s="78">
-        <v>5571.3303490867838</v>
+        <v>5571.33</v>
       </c>
       <c r="BA46" s="126">
-        <v>4781.9085418227996</v>
+        <v>4781.8999999999996</v>
       </c>
       <c r="BB46" s="126">
-        <v>-72662.755779586005</v>
+        <v>-72662.75</v>
       </c>
       <c r="BC46" s="126">
-        <v>-85052.860594270998</v>
+        <v>-85052.85</v>
       </c>
       <c r="BD46" s="126">
-        <v>-120419.58955285999</v>
+        <v>-120419.58</v>
       </c>
       <c r="BE46" s="78">
-        <v>-273353.29738489998</v>
+        <v>-273353.3</v>
       </c>
       <c r="BF46" s="126">
-        <v>-24627.519473643999</v>
+        <v>-26817.8</v>
       </c>
       <c r="BG46" s="126">
-        <v>65796.548186194006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67822.240000000005</v>
+      </c>
+      <c r="BH46" s="126">
+        <v>85610.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="80"/>
       <c r="B47" s="81"/>
       <c r="C47" s="75"/>
@@ -22059,8 +22372,9 @@
       <c r="BE47" s="78"/>
       <c r="BF47" s="126"/>
       <c r="BG47" s="126"/>
-    </row>
-    <row r="48" spans="1:59" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH47" s="126"/>
+    </row>
+    <row r="48" spans="1:60" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="85">
         <v>8</v>
       </c>
@@ -22203,16 +22517,16 @@
         <v>14838756</v>
       </c>
       <c r="AV48" s="88">
-        <v>3782626.8000000017</v>
+        <v>3782626.8</v>
       </c>
       <c r="AW48" s="88">
-        <v>3964191.1999999997</v>
+        <v>3964191.2</v>
       </c>
       <c r="AX48" s="88">
-        <v>4067226.6000000006</v>
+        <v>4067226.6</v>
       </c>
       <c r="AY48" s="88">
-        <v>4018490.7999999989</v>
+        <v>4018490.8</v>
       </c>
       <c r="AZ48" s="89">
         <v>15832535.4</v>
@@ -22233,13 +22547,16 @@
         <v>15434151.800000001</v>
       </c>
       <c r="BF48" s="127">
-        <v>3970483.9</v>
+        <v>3970449.4</v>
       </c>
       <c r="BG48" s="127">
-        <v>4175843.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:59" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4175901.4</v>
+      </c>
+      <c r="BH48" s="127">
+        <v>4325436.9000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="74"/>
       <c r="B49" s="67"/>
       <c r="C49" s="91"/>
@@ -22288,8 +22605,9 @@
       <c r="BD49" s="128"/>
       <c r="BF49" s="128"/>
       <c r="BG49" s="128"/>
-    </row>
-    <row r="50" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH49" s="128"/>
+    </row>
+    <row r="50" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="95"/>
       <c r="B50" s="96"/>
       <c r="W50" s="95"/>
@@ -22313,7 +22631,7 @@
       <c r="AO50" s="95"/>
       <c r="AP50" s="95"/>
     </row>
-    <row r="51" spans="1:59" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:60" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="34"/>
       <c r="B51" s="34"/>
       <c r="C51" s="35"/>
@@ -22359,18 +22677,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BA4:BD4"/>
     <mergeCell ref="AV4:AY4"/>
     <mergeCell ref="AQ4:AT4"/>
     <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AG4:AJ4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" fitToWidth="10" fitToHeight="10" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
@@ -22383,14 +22701,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1" codeName="Sheet2"/>
-  <dimension ref="A1:XEC346"/>
+  <dimension ref="A1:XED346"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="79" zoomScaleNormal="79" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="BB9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="BC9" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:IV65536"/>
       <selection pane="topRight" sqref="A1:IV65536"/>
       <selection pane="bottomLeft" sqref="A1:IV65536"/>
-      <selection pane="bottomRight" activeCell="BD3" sqref="BD3"/>
+      <selection pane="bottomRight" activeCell="BH14" sqref="BH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -22398,132 +22716,133 @@
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="48" style="2" customWidth="1"/>
-    <col min="4" max="60" width="13" style="2" customWidth="1"/>
-    <col min="61" max="16357" width="8" style="2" customWidth="1"/>
+    <col min="4" max="61" width="13" style="2" customWidth="1"/>
+    <col min="62" max="16358" width="8" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="AP4" s="114"/>
       <c r="AQ4" s="114"/>
     </row>
-    <row r="5" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="136" t="s">
+    <row r="5" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="138">
+      <c r="C5" s="143"/>
+      <c r="D5" s="139">
         <v>2010</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="138">
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="139">
         <v>2011</v>
       </c>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="138">
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="139">
         <v>2012</v>
       </c>
-      <c r="O5" s="139"/>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="138">
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="139">
         <v>2013</v>
       </c>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="140"/>
-      <c r="X5" s="138">
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="139">
         <v>2014</v>
       </c>
-      <c r="Y5" s="139"/>
-      <c r="Z5" s="139"/>
-      <c r="AA5" s="139"/>
-      <c r="AB5" s="140"/>
-      <c r="AC5" s="138">
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="141"/>
+      <c r="AC5" s="139">
         <v>2015</v>
       </c>
-      <c r="AD5" s="139"/>
-      <c r="AE5" s="139"/>
-      <c r="AF5" s="139"/>
-      <c r="AG5" s="140"/>
-      <c r="AH5" s="130" t="s">
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="141"/>
+      <c r="AH5" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="130" t="s">
+      <c r="AI5" s="133"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="133"/>
+      <c r="AM5" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="AN5" s="131"/>
-      <c r="AO5" s="131"/>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="130" t="s">
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="133"/>
+      <c r="AP5" s="133"/>
+      <c r="AQ5" s="133"/>
+      <c r="AR5" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="AS5" s="131"/>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="131" t="s">
+      <c r="AS5" s="133"/>
+      <c r="AT5" s="133"/>
+      <c r="AU5" s="133"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="AX5" s="131"/>
-      <c r="AY5" s="131"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="131"/>
-      <c r="BB5" s="147" t="s">
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="133"/>
+      <c r="AZ5" s="133"/>
+      <c r="BA5" s="133"/>
+      <c r="BB5" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="BC5" s="148"/>
-      <c r="BD5" s="148"/>
-      <c r="BE5" s="148"/>
-      <c r="BF5" s="148"/>
+      <c r="BC5" s="149"/>
+      <c r="BD5" s="149"/>
+      <c r="BE5" s="149"/>
+      <c r="BF5" s="149"/>
       <c r="BG5" s="134" t="s">
         <v>210</v>
       </c>
-      <c r="BH5" s="149"/>
-    </row>
-    <row r="6" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
+      <c r="BH5" s="135"/>
+      <c r="BI5" s="136"/>
+    </row>
+    <row r="6" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="138"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
@@ -22695,15 +23014,18 @@
       <c r="BH6" s="33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI6" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
         <v>-1</v>
       </c>
-      <c r="B7" s="132">
+      <c r="B7" s="130">
         <v>-2</v>
       </c>
-      <c r="C7" s="133"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="15">
         <v>-3</v>
       </c>
@@ -22875,8 +23197,11 @@
       <c r="BH7" s="15">
         <v>-59</v>
       </c>
-    </row>
-    <row r="8" spans="1:60" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI7" s="15">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -22932,8 +23257,9 @@
       <c r="BF8" s="121"/>
       <c r="BG8" s="121"/>
       <c r="BH8" s="121"/>
-    </row>
-    <row r="9" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI8" s="121"/>
+    </row>
+    <row r="9" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -23077,13 +23403,13 @@
         <v>1307253</v>
       </c>
       <c r="AW9" s="12">
-        <v>322418.10000000003</v>
+        <v>322418.09999999998</v>
       </c>
       <c r="AX9" s="12">
         <v>366760.5</v>
       </c>
       <c r="AY9" s="12">
-        <v>370560.60000000003</v>
+        <v>370560.6</v>
       </c>
       <c r="AZ9" s="12">
         <v>294659.90000000002</v>
@@ -23092,7 +23418,7 @@
         <v>1354399.1</v>
       </c>
       <c r="BB9" s="12">
-        <v>322450.69999999995</v>
+        <v>322450.7</v>
       </c>
       <c r="BC9" s="12">
         <v>374813.2</v>
@@ -23104,16 +23430,19 @@
         <v>302293.7</v>
       </c>
       <c r="BF9" s="12">
-        <v>1378131.2999999998</v>
+        <v>1378131.3</v>
       </c>
       <c r="BG9" s="12">
-        <v>333188</v>
+        <v>333336.8</v>
       </c>
       <c r="BH9" s="12">
-        <v>376254.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>376420.5</v>
+      </c>
+      <c r="BI9" s="12">
+        <v>383514.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="25">
         <v>1</v>
@@ -23263,7 +23592,7 @@
         <v>288627.7</v>
       </c>
       <c r="AY10" s="27">
-        <v>290318.60000000003</v>
+        <v>290318.59999999998</v>
       </c>
       <c r="AZ10" s="27">
         <v>214167.5</v>
@@ -23272,7 +23601,7 @@
         <v>1038902.9</v>
       </c>
       <c r="BB10" s="27">
-        <v>242866.99999999997</v>
+        <v>242867</v>
       </c>
       <c r="BC10" s="27">
         <v>296715</v>
@@ -23284,16 +23613,19 @@
         <v>221984.9</v>
       </c>
       <c r="BF10" s="27">
-        <v>1060823.0999999999</v>
+        <v>1060823.1000000001</v>
       </c>
       <c r="BG10" s="27">
-        <v>255796.1</v>
+        <v>255944.9</v>
       </c>
       <c r="BH10" s="27">
-        <v>292893.09999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>293059.5</v>
+      </c>
+      <c r="BI10" s="27">
+        <v>301314.40000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26" t="s">
@@ -23462,16 +23794,19 @@
         <v>50413.1</v>
       </c>
       <c r="BF11" s="27">
-        <v>303247.39999999997</v>
+        <v>303247.40000000002</v>
       </c>
       <c r="BG11" s="27">
-        <v>80433.100000000006</v>
+        <v>80577.2</v>
       </c>
       <c r="BH11" s="27">
-        <v>88881.600000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89028.7</v>
+      </c>
+      <c r="BI11" s="27">
+        <v>79372.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
@@ -23643,13 +23978,16 @@
         <v>159539.29999999999</v>
       </c>
       <c r="BG12" s="27">
-        <v>36340.6</v>
+        <v>36338.800000000003</v>
       </c>
       <c r="BH12" s="27">
-        <v>43751.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43756.800000000003</v>
+      </c>
+      <c r="BI12" s="27">
+        <v>42610.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26" t="s">
@@ -23826,8 +24164,11 @@
       <c r="BH13" s="27">
         <v>109867.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI13" s="27">
+        <v>131654.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26" t="s">
@@ -23999,13 +24340,16 @@
         <v>167084.79999999999</v>
       </c>
       <c r="BG14" s="27">
-        <v>43227.5</v>
+        <v>43232.7</v>
       </c>
       <c r="BH14" s="27">
-        <v>44977.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44986.5</v>
+      </c>
+      <c r="BI14" s="27">
+        <v>42038.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26" t="s">
@@ -24174,16 +24518,19 @@
         <v>4458.8999999999996</v>
       </c>
       <c r="BF15" s="27">
-        <v>20398.199999999997</v>
+        <v>20398.2</v>
       </c>
       <c r="BG15" s="27">
-        <v>5168.8999999999996</v>
+        <v>5170.2</v>
       </c>
       <c r="BH15" s="27">
-        <v>5414.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5419.7</v>
+      </c>
+      <c r="BI15" s="27">
+        <v>5637.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="25">
         <v>2</v>
@@ -24339,7 +24686,7 @@
         <v>15978</v>
       </c>
       <c r="BA16" s="27">
-        <v>63217.600000000006</v>
+        <v>63217.599999999999</v>
       </c>
       <c r="BB16" s="27">
         <v>15089.2</v>
@@ -24354,7 +24701,7 @@
         <v>15112.7</v>
       </c>
       <c r="BF16" s="27">
-        <v>63195.899999999994</v>
+        <v>63195.9</v>
       </c>
       <c r="BG16" s="27">
         <v>13742</v>
@@ -24362,8 +24709,11 @@
       <c r="BH16" s="27">
         <v>15631.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI16" s="27">
+        <v>16673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
       <c r="B17" s="25">
         <v>3</v>
@@ -24534,7 +24884,7 @@
         <v>65196.1</v>
       </c>
       <c r="BF17" s="27">
-        <v>254112.30000000002</v>
+        <v>254112.3</v>
       </c>
       <c r="BG17" s="27">
         <v>63649.9</v>
@@ -24542,8 +24892,11 @@
       <c r="BH17" s="27">
         <v>67729.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI17" s="27">
+        <v>65527.199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>87</v>
       </c>
@@ -24693,7 +25046,7 @@
         <v>198665.2</v>
       </c>
       <c r="AY18" s="12">
-        <v>205388.30000000002</v>
+        <v>205388.3</v>
       </c>
       <c r="AZ18" s="12">
         <v>202263.3</v>
@@ -24702,7 +25055,7 @@
         <v>806206.2</v>
       </c>
       <c r="BB18" s="12">
-        <v>200784.40000000002</v>
+        <v>200784.4</v>
       </c>
       <c r="BC18" s="12">
         <v>193261.5</v>
@@ -24711,19 +25064,22 @@
         <v>196594.9</v>
       </c>
       <c r="BE18" s="12">
-        <v>199834.40000000002</v>
+        <v>199834.4</v>
       </c>
       <c r="BF18" s="12">
-        <v>790475.20000000007</v>
+        <v>790475.2</v>
       </c>
       <c r="BG18" s="12">
         <v>196726.1</v>
       </c>
       <c r="BH18" s="12">
-        <v>203356.09999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>203356.1</v>
+      </c>
+      <c r="BI18" s="12">
+        <v>211889.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="25">
         <v>1</v>
@@ -24902,8 +25258,11 @@
       <c r="BH19" s="27">
         <v>63937.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI19" s="27">
+        <v>65736.600000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17"/>
       <c r="B20" s="25">
         <v>2</v>
@@ -25082,8 +25441,11 @@
       <c r="BH20" s="27">
         <v>66172.399999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI20" s="27">
+        <v>69205.899999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="25">
         <v>3</v>
@@ -25262,8 +25624,11 @@
       <c r="BH21" s="27">
         <v>32850.699999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI21" s="27">
+        <v>34041.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="25">
         <v>4</v>
@@ -25442,8 +25807,11 @@
       <c r="BH22" s="27">
         <v>40395.699999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI22" s="27">
+        <v>42906.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
         <v>93</v>
       </c>
@@ -25587,7 +25955,7 @@
         <v>2193368.4</v>
       </c>
       <c r="AW23" s="12">
-        <v>555287.99999999988</v>
+        <v>555288</v>
       </c>
       <c r="AX23" s="12">
         <v>564913</v>
@@ -25622,8 +25990,11 @@
       <c r="BH23" s="12">
         <v>564865.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI23" s="12">
+        <v>578167.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="17"/>
       <c r="B24" s="25">
         <v>1</v>
@@ -25802,8 +26173,11 @@
       <c r="BH24" s="27">
         <v>51548.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI24" s="27">
+        <v>49801.599999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="30" t="s">
         <v>159</v>
@@ -25945,7 +26319,7 @@
         <v>1973536.5999999999</v>
       </c>
       <c r="AW25" s="32">
-        <v>501807.39999999991</v>
+        <v>501807.4</v>
       </c>
       <c r="AX25" s="32">
         <v>509382</v>
@@ -25954,16 +26328,16 @@
         <v>528720.9</v>
       </c>
       <c r="AZ25" s="32">
-        <v>519355.30000000005</v>
+        <v>519355.3</v>
       </c>
       <c r="BA25" s="32">
-        <v>2059265.5999999999</v>
+        <v>2059265.6</v>
       </c>
       <c r="BB25" s="32">
         <v>511891.8</v>
       </c>
       <c r="BC25" s="32">
-        <v>480122.80000000005</v>
+        <v>480122.8</v>
       </c>
       <c r="BD25" s="32">
         <v>507461.2</v>
@@ -25980,8 +26354,11 @@
       <c r="BH25" s="32">
         <v>513316.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI25" s="32">
+        <v>528365.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17"/>
       <c r="B26" s="25">
         <v>1</v>
@@ -26160,8 +26537,11 @@
       <c r="BH26" s="27">
         <v>193158.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI26" s="27">
+        <v>202383.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="17"/>
       <c r="B27" s="25">
         <v>2</v>
@@ -26340,8 +26720,11 @@
       <c r="BH27" s="27">
         <v>19607.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI27" s="27">
+        <v>20804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17"/>
       <c r="B28" s="25">
         <v>3</v>
@@ -26520,8 +26903,11 @@
       <c r="BH28" s="27">
         <v>30922.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI28" s="27">
+        <v>32241.599999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="17"/>
       <c r="B29" s="25">
         <v>4</v>
@@ -26692,7 +27078,7 @@
         <v>6718.7</v>
       </c>
       <c r="BF29" s="27">
-        <v>26142.600000000002</v>
+        <v>26142.6</v>
       </c>
       <c r="BG29" s="27">
         <v>7190.2</v>
@@ -26700,8 +27086,11 @@
       <c r="BH29" s="27">
         <v>6695.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI29" s="27">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="25">
         <v>5</v>
@@ -26857,7 +27246,7 @@
         <v>15069.6</v>
       </c>
       <c r="BA30" s="27">
-        <v>59498.299999999996</v>
+        <v>59498.3</v>
       </c>
       <c r="BB30" s="27">
         <v>14992.5</v>
@@ -26872,7 +27261,7 @@
         <v>14412.2</v>
       </c>
       <c r="BF30" s="27">
-        <v>58212.099999999991</v>
+        <v>58212.1</v>
       </c>
       <c r="BG30" s="27">
         <v>13717.2</v>
@@ -26880,8 +27269,11 @@
       <c r="BH30" s="27">
         <v>13463.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI30" s="27">
+        <v>14294.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="17"/>
       <c r="B31" s="25">
         <v>6</v>
@@ -27060,8 +27452,11 @@
       <c r="BH31" s="27">
         <v>19381.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI31" s="27">
+        <v>19277.099999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="17"/>
       <c r="B32" s="25">
         <v>7</v>
@@ -27240,8 +27635,11 @@
       <c r="BH32" s="27">
         <v>56658</v>
       </c>
-    </row>
-    <row r="33" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI32" s="27">
+        <v>60189.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="17"/>
       <c r="B33" s="25">
         <v>8</v>
@@ -27397,7 +27795,7 @@
         <v>17638</v>
       </c>
       <c r="BA33" s="27">
-        <v>72398.799999999988</v>
+        <v>72398.8</v>
       </c>
       <c r="BB33" s="27">
         <v>17889.900000000001</v>
@@ -27420,8 +27818,11 @@
       <c r="BH33" s="27">
         <v>17641.400000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI33" s="27">
+        <v>16503.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="25">
         <v>9</v>
@@ -27600,8 +28001,11 @@
       <c r="BH34" s="27">
         <v>15927.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI34" s="27">
+        <v>16902.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="25">
         <v>10</v>
@@ -27780,8 +28184,11 @@
       <c r="BH35" s="27">
         <v>26465.200000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI35" s="27">
+        <v>27194.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="25">
         <v>11</v>
@@ -27952,7 +28359,7 @@
         <v>49413.2</v>
       </c>
       <c r="BF36" s="27">
-        <v>193026.59999999998</v>
+        <v>193026.6</v>
       </c>
       <c r="BG36" s="27">
         <v>46692.3</v>
@@ -27960,8 +28367,11 @@
       <c r="BH36" s="27">
         <v>48684.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI36" s="27">
+        <v>45342.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="25">
         <v>12</v>
@@ -28140,8 +28550,11 @@
       <c r="BH37" s="27">
         <v>8077.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI37" s="27">
+        <v>8087.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="25">
         <v>13</v>
@@ -28320,8 +28733,11 @@
       <c r="BH38" s="27">
         <v>45481.9</v>
       </c>
-    </row>
-    <row r="39" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI38" s="27">
+        <v>46883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="25">
         <v>14</v>
@@ -28500,8 +28916,11 @@
       <c r="BH39" s="27">
         <v>7158.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI39" s="27">
+        <v>7295.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="25">
         <v>15</v>
@@ -28672,7 +29091,7 @@
         <v>4179.6000000000004</v>
       </c>
       <c r="BF40" s="27">
-        <v>16426.800000000003</v>
+        <v>16426.8</v>
       </c>
       <c r="BG40" s="27">
         <v>4028.9</v>
@@ -28680,8 +29099,11 @@
       <c r="BH40" s="27">
         <v>3993.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI40" s="27">
+        <v>4030.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
         <v>111</v>
       </c>
@@ -28831,7 +29253,7 @@
         <v>27011.5</v>
       </c>
       <c r="AY41" s="12">
-        <v>28344.600000000002</v>
+        <v>28344.6</v>
       </c>
       <c r="AZ41" s="12">
         <v>29386.400000000001</v>
@@ -28843,7 +29265,7 @@
         <v>27722.2</v>
       </c>
       <c r="BC41" s="12">
-        <v>25535.399999999998</v>
+        <v>25535.4</v>
       </c>
       <c r="BD41" s="12">
         <v>27654</v>
@@ -28852,7 +29274,7 @@
         <v>27914.799999999999</v>
       </c>
       <c r="BF41" s="12">
-        <v>108826.40000000001</v>
+        <v>108826.4</v>
       </c>
       <c r="BG41" s="12">
         <v>28188.2</v>
@@ -28860,8 +29282,11 @@
       <c r="BH41" s="12">
         <v>27857.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI41" s="12">
+        <v>28719.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="25">
         <v>1</v>
@@ -29040,8 +29465,11 @@
       <c r="BH42" s="27">
         <v>24792</v>
       </c>
-    </row>
-    <row r="43" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI42" s="27">
+        <v>25494.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="17"/>
       <c r="B43" s="25">
         <v>2</v>
@@ -29220,8 +29648,11 @@
       <c r="BH43" s="27">
         <v>3065.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI43" s="27">
+        <v>3225.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17" t="s">
         <v>114</v>
       </c>
@@ -29377,7 +29808,7 @@
         <v>2327.1999999999998</v>
       </c>
       <c r="BA44" s="12">
-        <v>9004.9000000000015</v>
+        <v>9004.9</v>
       </c>
       <c r="BB44" s="12">
         <v>2302.9</v>
@@ -29398,10 +29829,13 @@
         <v>2428.6999999999998</v>
       </c>
       <c r="BH44" s="12">
-        <v>2469.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2469.1999999999998</v>
+      </c>
+      <c r="BI44" s="12">
+        <v>2477.3000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="17" t="s">
         <v>116</v>
       </c>
@@ -29580,8 +30014,11 @@
       <c r="BH45" s="12">
         <v>264663.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI45" s="12">
+        <v>278240.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="17" t="s">
         <v>118</v>
       </c>
@@ -29728,13 +30165,13 @@
         <v>350441.3</v>
       </c>
       <c r="AX46" s="12">
-        <v>359309.89999999997</v>
+        <v>359309.9</v>
       </c>
       <c r="AY46" s="12">
         <v>369536.5</v>
       </c>
       <c r="AZ46" s="12">
-        <v>360975.30000000005</v>
+        <v>360975.3</v>
       </c>
       <c r="BA46" s="12">
         <v>1440263</v>
@@ -29746,22 +30183,25 @@
         <v>332044</v>
       </c>
       <c r="BD46" s="12">
-        <v>350880.39999999997</v>
+        <v>350880.4</v>
       </c>
       <c r="BE46" s="12">
         <v>347832.7</v>
       </c>
       <c r="BF46" s="12">
-        <v>1386695.4000000001</v>
+        <v>1386695.4</v>
       </c>
       <c r="BG46" s="12">
-        <v>351560.3</v>
+        <v>351576.8</v>
       </c>
       <c r="BH46" s="12">
-        <v>363388.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>363408.9</v>
+      </c>
+      <c r="BI46" s="12">
+        <v>368999.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17"/>
       <c r="B47" s="25">
         <v>1</v>
@@ -29940,8 +30380,11 @@
       <c r="BH47" s="27">
         <v>64559</v>
       </c>
-    </row>
-    <row r="48" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI47" s="27">
+        <v>65484.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="17"/>
       <c r="B48" s="25">
         <v>2</v>
@@ -30112,16 +30555,19 @@
         <v>285093.90000000002</v>
       </c>
       <c r="BF48" s="27">
-        <v>1152748.2000000002</v>
+        <v>1152748.2</v>
       </c>
       <c r="BG48" s="27">
-        <v>287844.09999999998</v>
+        <v>287860.59999999998</v>
       </c>
       <c r="BH48" s="27">
-        <v>298829.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>298849.90000000002</v>
+      </c>
+      <c r="BI48" s="27">
+        <v>303514.59999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
         <v>122</v>
       </c>
@@ -30265,13 +30711,13 @@
         <v>435336.5</v>
       </c>
       <c r="AW49" s="12">
-        <v>110570.90000000001</v>
+        <v>110570.9</v>
       </c>
       <c r="AX49" s="12">
         <v>114612.6</v>
       </c>
       <c r="AY49" s="12">
-        <v>118341.30000000002</v>
+        <v>118341.3</v>
       </c>
       <c r="AZ49" s="12">
         <v>119632.7</v>
@@ -30280,28 +30726,31 @@
         <v>463157.5</v>
       </c>
       <c r="BB49" s="12">
-        <v>112012.70000000001</v>
+        <v>112012.7</v>
       </c>
       <c r="BC49" s="12">
         <v>79314.7</v>
       </c>
       <c r="BD49" s="12">
-        <v>98571.799999999988</v>
+        <v>98571.8</v>
       </c>
       <c r="BE49" s="12">
-        <v>103582.70000000001</v>
+        <v>103582.7</v>
       </c>
       <c r="BF49" s="12">
-        <v>393481.89999999997</v>
+        <v>393481.9</v>
       </c>
       <c r="BG49" s="12">
         <v>97315.5</v>
       </c>
       <c r="BH49" s="12">
-        <v>99221.400000000009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99221.4</v>
+      </c>
+      <c r="BI49" s="12">
+        <v>97857.600000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="17"/>
       <c r="B50" s="25">
         <v>1</v>
@@ -30480,8 +30929,11 @@
       <c r="BH50" s="27">
         <v>635</v>
       </c>
-    </row>
-    <row r="51" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI50" s="27">
+        <v>482.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="17"/>
       <c r="B51" s="25">
         <v>2</v>
@@ -30652,7 +31104,7 @@
         <v>64558.1</v>
       </c>
       <c r="BF51" s="27">
-        <v>248208.00000000003</v>
+        <v>248208</v>
       </c>
       <c r="BG51" s="27">
         <v>63523.6</v>
@@ -30660,8 +31112,11 @@
       <c r="BH51" s="27">
         <v>63784.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI51" s="27">
+        <v>65286.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="17"/>
       <c r="B52" s="25">
         <v>3</v>
@@ -30840,8 +31295,11 @@
       <c r="BH52" s="27">
         <v>9052.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI52" s="27">
+        <v>9341.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="17"/>
       <c r="B53" s="25">
         <v>4</v>
@@ -31020,8 +31478,11 @@
       <c r="BH53" s="27">
         <v>2417.1999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI53" s="27">
+        <v>2538.1999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="17"/>
       <c r="B54" s="25">
         <v>5</v>
@@ -31192,7 +31653,7 @@
         <v>8666.2999999999993</v>
       </c>
       <c r="BF54" s="27">
-        <v>32859.600000000006</v>
+        <v>32859.599999999999</v>
       </c>
       <c r="BG54" s="27">
         <v>6868.4</v>
@@ -31200,8 +31661,11 @@
       <c r="BH54" s="27">
         <v>7801.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI54" s="27">
+        <v>5190.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="17"/>
       <c r="B55" s="25">
         <v>6</v>
@@ -31372,7 +31836,7 @@
         <v>17351.400000000001</v>
       </c>
       <c r="BF55" s="27">
-        <v>63203.200000000004</v>
+        <v>63203.199999999997</v>
       </c>
       <c r="BG55" s="27">
         <v>14973.3</v>
@@ -31380,8 +31844,11 @@
       <c r="BH55" s="27">
         <v>15531.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI55" s="27">
+        <v>15018.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="17" t="s">
         <v>71</v>
       </c>
@@ -31537,13 +32004,13 @@
         <v>85818.1</v>
       </c>
       <c r="BA56" s="12">
-        <v>333306.80000000005</v>
+        <v>333306.8</v>
       </c>
       <c r="BB56" s="12">
         <v>82803.3</v>
       </c>
       <c r="BC56" s="12">
-        <v>64369.299999999996</v>
+        <v>64369.3</v>
       </c>
       <c r="BD56" s="12">
         <v>73875</v>
@@ -31558,10 +32025,13 @@
         <v>76794.600000000006</v>
       </c>
       <c r="BH56" s="12">
-        <v>78258.599999999991</v>
-      </c>
-    </row>
-    <row r="57" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78258.600000000006</v>
+      </c>
+      <c r="BI56" s="12">
+        <v>73777.600000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="17"/>
       <c r="B57" s="25">
         <v>1</v>
@@ -31717,7 +32187,7 @@
         <v>16360.8</v>
       </c>
       <c r="BA57" s="27">
-        <v>63869.600000000006</v>
+        <v>63869.599999999999</v>
       </c>
       <c r="BB57" s="27">
         <v>15126.5</v>
@@ -31740,8 +32210,11 @@
       <c r="BH57" s="27">
         <v>12696.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI57" s="27">
+        <v>10578.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="17"/>
       <c r="B58" s="25">
         <v>2</v>
@@ -31920,8 +32393,11 @@
       <c r="BH58" s="27">
         <v>65562.399999999994</v>
       </c>
-    </row>
-    <row r="59" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI58" s="27">
+        <v>63199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="17" t="s">
         <v>133</v>
       </c>
@@ -32092,16 +32568,19 @@
         <v>168133.3</v>
       </c>
       <c r="BF59" s="12">
-        <v>651930.89999999991</v>
+        <v>651930.9</v>
       </c>
       <c r="BG59" s="12">
-        <v>169605.2</v>
+        <v>169605.3</v>
       </c>
       <c r="BH59" s="12">
-        <v>172386.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172431.7</v>
+      </c>
+      <c r="BI59" s="12">
+        <v>175654.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="17" t="s">
         <v>135</v>
       </c>
@@ -32251,25 +32730,25 @@
         <v>107167.9</v>
       </c>
       <c r="AY60" s="12">
-        <v>112168.60000000002</v>
+        <v>112168.6</v>
       </c>
       <c r="AZ60" s="12">
-        <v>114619.29999999999</v>
+        <v>114619.3</v>
       </c>
       <c r="BA60" s="12">
         <v>443093.1</v>
       </c>
       <c r="BB60" s="12">
-        <v>120735.49999999999</v>
+        <v>120735.5</v>
       </c>
       <c r="BC60" s="12">
         <v>108302.2</v>
       </c>
       <c r="BD60" s="12">
-        <v>111106.49999999999</v>
+        <v>111106.5</v>
       </c>
       <c r="BE60" s="12">
-        <v>117337.79999999999</v>
+        <v>117337.8</v>
       </c>
       <c r="BF60" s="12">
         <v>457482</v>
@@ -32278,10 +32757,13 @@
         <v>117144.1</v>
       </c>
       <c r="BH60" s="12">
-        <v>117341.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117322.1</v>
+      </c>
+      <c r="BI60" s="12">
+        <v>115869.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="17"/>
       <c r="B61" s="25">
         <v>1</v>
@@ -32460,8 +32942,11 @@
       <c r="BH61" s="27">
         <v>72770.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI61" s="27">
+        <v>71070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="25">
         <v>2</v>
@@ -32638,10 +33123,13 @@
         <v>25796.2</v>
       </c>
       <c r="BH62" s="27">
-        <v>25759</v>
-      </c>
-    </row>
-    <row r="63" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25746.9</v>
+      </c>
+      <c r="BI62" s="27">
+        <v>25581.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
       <c r="B63" s="25">
         <v>3</v>
@@ -32818,10 +33306,13 @@
         <v>16180.2</v>
       </c>
       <c r="BH63" s="27">
-        <v>16334.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16327.4</v>
+      </c>
+      <c r="BI63" s="27">
+        <v>16700.900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="17"/>
       <c r="B64" s="25">
         <v>4</v>
@@ -32977,7 +33468,7 @@
         <v>2355.9</v>
       </c>
       <c r="BA64" s="27">
-        <v>9357.8000000000011</v>
+        <v>9357.7999999999993</v>
       </c>
       <c r="BB64" s="27">
         <v>2350.6999999999998</v>
@@ -33000,8 +33491,11 @@
       <c r="BH64" s="27">
         <v>2477.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI64" s="27">
+        <v>2516.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="17" t="s">
         <v>141</v>
       </c>
@@ -33180,8 +33674,11 @@
       <c r="BH65" s="12">
         <v>82887.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI65" s="12">
+        <v>84164.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="17" t="s">
         <v>143</v>
       </c>
@@ -33337,7 +33834,7 @@
         <v>53578.400000000001</v>
       </c>
       <c r="BA66" s="12">
-        <v>206936.19999999998</v>
+        <v>206936.2</v>
       </c>
       <c r="BB66" s="12">
         <v>52355.6</v>
@@ -33360,8 +33857,11 @@
       <c r="BH66" s="12">
         <v>49438.400000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI66" s="12">
+        <v>48242.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="17" t="s">
         <v>145</v>
       </c>
@@ -33535,13 +34035,16 @@
         <v>365440.9</v>
       </c>
       <c r="BG67" s="12">
-        <v>87709.5</v>
+        <v>87837.1</v>
       </c>
       <c r="BH67" s="12">
-        <v>96518.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96638.399999999994</v>
+      </c>
+      <c r="BI67" s="12">
+        <v>80508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="17" t="s">
         <v>147</v>
       </c>
@@ -33712,16 +34215,19 @@
         <v>94964</v>
       </c>
       <c r="BF68" s="12">
-        <v>350329.80000000005</v>
+        <v>350329.8</v>
       </c>
       <c r="BG68" s="12">
-        <v>82489.899999999994</v>
+        <v>82644.2</v>
       </c>
       <c r="BH68" s="12">
-        <v>88145.600000000006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88279.7</v>
+      </c>
+      <c r="BI68" s="12">
+        <v>84172.800000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="17" t="s">
         <v>149</v>
       </c>
@@ -33895,13 +34401,16 @@
         <v>142309.70000000001</v>
       </c>
       <c r="BG69" s="12">
-        <v>34999.1</v>
+        <v>35020</v>
       </c>
       <c r="BH69" s="12">
-        <v>36245.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36266</v>
+      </c>
+      <c r="BI69" s="12">
+        <v>42104.800000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="17" t="s">
         <v>151</v>
       </c>
@@ -34072,16 +34581,19 @@
         <v>50448.9</v>
       </c>
       <c r="BF70" s="12">
-        <v>196608.69999999998</v>
+        <v>196608.7</v>
       </c>
       <c r="BG70" s="12">
-        <v>49678.9</v>
+        <v>49679.7</v>
       </c>
       <c r="BH70" s="12">
-        <v>49781.9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49782.8</v>
+      </c>
+      <c r="BI70" s="12">
+        <v>49170.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="17"/>
       <c r="B71" s="23"/>
       <c r="C71" s="21"/>
@@ -34137,8 +34649,9 @@
       <c r="BF71" s="121"/>
       <c r="BG71" s="121"/>
       <c r="BH71" s="121"/>
-    </row>
-    <row r="72" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI71" s="121"/>
+    </row>
+    <row r="72" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>77</v>
       </c>
@@ -34282,19 +34795,19 @@
         <v>10002892.799999999</v>
       </c>
       <c r="AW72" s="27">
-        <v>2539962.6999999993</v>
+        <v>2539962.7000000002</v>
       </c>
       <c r="AX72" s="27">
         <v>2622195.4</v>
       </c>
       <c r="AY72" s="27">
-        <v>2694679.6000000006</v>
+        <v>2694679.6</v>
       </c>
       <c r="AZ72" s="27">
-        <v>2641918.1999999997</v>
+        <v>2641918.2000000002</v>
       </c>
       <c r="BA72" s="27">
-        <v>10498755.899999999</v>
+        <v>10498755.9</v>
       </c>
       <c r="BB72" s="27">
         <v>2614966.5</v>
@@ -34303,22 +34816,25 @@
         <v>2498770.9</v>
       </c>
       <c r="BD72" s="27">
-        <v>2625334.9999999991</v>
+        <v>2625335</v>
       </c>
       <c r="BE72" s="27">
-        <v>2593522.6999999997</v>
+        <v>2593522.7000000002</v>
       </c>
       <c r="BF72" s="27">
         <v>10332595.1</v>
       </c>
       <c r="BG72" s="27">
-        <v>2588957</v>
+        <v>2589426</v>
       </c>
       <c r="BH72" s="27">
-        <v>2673079.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2673568</v>
+      </c>
+      <c r="BI72" s="27">
+        <v>2703531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
         <v>87</v>
       </c>
@@ -34474,7 +34990,7 @@
         <v>127869.3</v>
       </c>
       <c r="BA73" s="27">
-        <v>450281.89999999997</v>
+        <v>450281.9</v>
       </c>
       <c r="BB73" s="27">
         <v>88182.5</v>
@@ -34492,13 +35008,16 @@
         <v>389847.6</v>
       </c>
       <c r="BG73" s="27">
-        <v>95061.6</v>
+        <v>94546.1</v>
       </c>
       <c r="BH73" s="27">
-        <v>99752.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:60" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99293.9</v>
+      </c>
+      <c r="BI73" s="27">
+        <v>112398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="18" t="s">
         <v>93</v>
       </c>
@@ -34642,19 +35161,19 @@
         <v>10425851.899999999</v>
       </c>
       <c r="AW74" s="16">
-        <v>2625125.6999999993</v>
+        <v>2625125.7000000002</v>
       </c>
       <c r="AX74" s="16">
         <v>2735403.1</v>
       </c>
       <c r="AY74" s="16">
-        <v>2818721.5000000005</v>
+        <v>2818721.5</v>
       </c>
       <c r="AZ74" s="16">
-        <v>2769787.4999999995</v>
+        <v>2769787.5</v>
       </c>
       <c r="BA74" s="16">
-        <v>10949037.799999999</v>
+        <v>10949037.800000001</v>
       </c>
       <c r="BB74" s="16">
         <v>2703149</v>
@@ -34663,53 +35182,56 @@
         <v>2589818.1</v>
       </c>
       <c r="BD74" s="16">
-        <v>2720478.4999999991</v>
+        <v>2720478.5</v>
       </c>
       <c r="BE74" s="16">
-        <v>2708997.0999999996</v>
+        <v>2708997.1</v>
       </c>
       <c r="BF74" s="16">
         <v>10722442.699999999</v>
       </c>
       <c r="BG74" s="16">
-        <v>2684018.6</v>
+        <v>2683972</v>
       </c>
       <c r="BH74" s="16">
-        <v>2772832.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2772862</v>
+      </c>
+      <c r="BI74" s="16">
+        <v>2815929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -35874,7 +36396,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BB5:BF5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C6"/>
@@ -35905,14 +36427,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEB50"/>
+  <dimension ref="A1:XEC50"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="BA8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="AZ8" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:IV65536"/>
       <selection pane="topRight" sqref="A1:IV65536"/>
       <selection pane="bottomLeft" sqref="A1:IV65536"/>
-      <selection pane="bottomRight" activeCell="BA9" sqref="BA9:BG48"/>
+      <selection pane="bottomRight" activeCell="BG22" sqref="BG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35955,11 +36477,11 @@
     <col min="52" max="52" width="14" style="44" customWidth="1"/>
     <col min="53" max="56" width="13" style="44" customWidth="1"/>
     <col min="57" max="57" width="14" style="44" customWidth="1"/>
-    <col min="58" max="59" width="13" style="44" customWidth="1"/>
-    <col min="60" max="16356" width="9" style="44" customWidth="1"/>
+    <col min="58" max="60" width="13" style="44" customWidth="1"/>
+    <col min="61" max="16357" width="9" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95"/>
       <c r="B1" s="96"/>
       <c r="W1" s="95"/>
@@ -35983,7 +36505,7 @@
       <c r="AO1" s="95"/>
       <c r="AP1" s="95"/>
     </row>
-    <row r="2" spans="1:59" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="112" t="s">
         <v>188</v>
       </c>
@@ -36029,7 +36551,7 @@
       <c r="AO2" s="36"/>
       <c r="AP2" s="36"/>
     </row>
-    <row r="3" spans="1:59" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="112" t="s">
         <v>189</v>
       </c>
@@ -36075,7 +36597,7 @@
       <c r="AO3" s="36"/>
       <c r="AP3" s="36"/>
     </row>
-    <row r="4" spans="1:59" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="146">
@@ -36148,19 +36670,20 @@
       <c r="AX4" s="146"/>
       <c r="AY4" s="146"/>
       <c r="AZ4" s="47"/>
-      <c r="BA4" s="145" t="s">
+      <c r="BA4" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="BB4" s="145"/>
-      <c r="BC4" s="145"/>
-      <c r="BD4" s="145"/>
+      <c r="BB4" s="147"/>
+      <c r="BC4" s="147"/>
+      <c r="BD4" s="147"/>
       <c r="BE4" s="47"/>
       <c r="BF4" s="150" t="s">
         <v>210</v>
       </c>
       <c r="BG4" s="150"/>
-    </row>
-    <row r="5" spans="1:59" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH4" s="150"/>
+    </row>
+    <row r="5" spans="1:60" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="49" t="s">
         <v>198</v>
@@ -36244,8 +36767,9 @@
       </c>
       <c r="BF5" s="151"/>
       <c r="BG5" s="151"/>
-    </row>
-    <row r="6" spans="1:59" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH5" s="151"/>
+    </row>
+    <row r="6" spans="1:60" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="97"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55" t="s">
@@ -36397,8 +36921,11 @@
       <c r="BG6" s="98" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH6" s="98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100"/>
       <c r="B7" s="58">
         <v>-1</v>
@@ -36574,8 +37101,11 @@
       <c r="BG7" s="60">
         <v>-58</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH7" s="60">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="63"/>
       <c r="C8" s="64"/>
@@ -36635,8 +37165,9 @@
       <c r="BE8" s="103"/>
       <c r="BF8" s="102"/>
       <c r="BG8" s="102"/>
-    </row>
-    <row r="9" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH8" s="102"/>
+    </row>
+    <row r="9" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="104" t="s">
         <v>164</v>
       </c>
@@ -36779,43 +37310,46 @@
         <v>5651456.2682671221</v>
       </c>
       <c r="AV9" s="71">
-        <v>1442549.4780592183</v>
+        <v>1442549.48</v>
       </c>
       <c r="AW9" s="71">
-        <v>1467584.8135434436</v>
+        <v>1467584.81</v>
       </c>
       <c r="AX9" s="71">
-        <v>1512796.6861653852</v>
+        <v>1512796.69</v>
       </c>
       <c r="AY9" s="71">
-        <v>1513468.487478045</v>
+        <v>1513468.49</v>
       </c>
       <c r="AZ9" s="72">
-        <v>5936399.4652460916</v>
+        <v>5936399.4699999997</v>
       </c>
       <c r="BA9" s="71">
-        <v>1483329.2327624999</v>
+        <v>1483329.23</v>
       </c>
       <c r="BB9" s="71">
-        <v>1386534.8094051001</v>
+        <v>1386534.81</v>
       </c>
       <c r="BC9" s="71">
-        <v>1451587.5731234001</v>
+        <v>1451587.57</v>
       </c>
       <c r="BD9" s="71">
-        <v>1458766.5212725999</v>
+        <v>1458766.52</v>
       </c>
       <c r="BE9" s="72">
-        <v>5780218.1365636</v>
+        <v>5780218.1399999997</v>
       </c>
       <c r="BF9" s="71">
-        <v>1450327.3327154999</v>
+        <v>1450491.9</v>
       </c>
       <c r="BG9" s="71">
-        <v>1468755.9155466999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1469124.12</v>
+      </c>
+      <c r="BH9" s="71">
+        <v>1466518.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74"/>
       <c r="B10" s="74" t="s">
         <v>165</v>
@@ -36956,43 +37490,46 @@
         <v>2072120.583042678</v>
       </c>
       <c r="AV10" s="77">
-        <v>530680.73420668894</v>
+        <v>530680.73</v>
       </c>
       <c r="AW10" s="77">
-        <v>539118.67506182927</v>
+        <v>539118.68000000005</v>
       </c>
       <c r="AX10" s="77">
-        <v>556717.16725716018</v>
+        <v>556717.17000000004</v>
       </c>
       <c r="AY10" s="77">
-        <v>552602.56807690253</v>
+        <v>552602.56999999995</v>
       </c>
       <c r="AZ10" s="78">
-        <v>2179119.1446025809</v>
+        <v>2179119.14</v>
       </c>
       <c r="BA10" s="77">
-        <v>557270.91388840997</v>
+        <v>557270.91</v>
       </c>
       <c r="BB10" s="77">
-        <v>535191.05628324999</v>
+        <v>535191.06000000006</v>
       </c>
       <c r="BC10" s="77">
-        <v>552849.35366323998</v>
+        <v>552849.35</v>
       </c>
       <c r="BD10" s="77">
-        <v>544924.31825128</v>
+        <v>544924.31999999995</v>
       </c>
       <c r="BE10" s="78">
-        <v>2190235.6420862</v>
+        <v>2190235.64</v>
       </c>
       <c r="BF10" s="77">
-        <v>544418.72403185</v>
+        <v>544552.36</v>
       </c>
       <c r="BG10" s="77">
-        <v>555998.41832950001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>557422.21</v>
+      </c>
+      <c r="BH10" s="77">
+        <v>557199.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
       <c r="B11" s="74" t="s">
         <v>166</v>
@@ -37133,43 +37670,46 @@
         <v>221470.06805677633</v>
       </c>
       <c r="AV11" s="77">
-        <v>56594.612328704796</v>
+        <v>56594.61</v>
       </c>
       <c r="AW11" s="77">
-        <v>58060.261996913046</v>
+        <v>58060.26</v>
       </c>
       <c r="AX11" s="77">
-        <v>57882.235940435261</v>
+        <v>57882.239999999998</v>
       </c>
       <c r="AY11" s="77">
-        <v>58383.422181135284</v>
+        <v>58383.42</v>
       </c>
       <c r="AZ11" s="78">
-        <v>230920.53244718839</v>
+        <v>230920.53</v>
       </c>
       <c r="BA11" s="77">
-        <v>54724.830630106997</v>
+        <v>54724.83</v>
       </c>
       <c r="BB11" s="77">
-        <v>55073.268440305001</v>
+        <v>55073.27</v>
       </c>
       <c r="BC11" s="77">
-        <v>55397.996466495999</v>
+        <v>55398</v>
       </c>
       <c r="BD11" s="77">
-        <v>55993.236020245997</v>
+        <v>55993.24</v>
       </c>
       <c r="BE11" s="78">
-        <v>221189.33155715</v>
+        <v>221189.33</v>
       </c>
       <c r="BF11" s="77">
-        <v>53246.198958148001</v>
+        <v>53251.21</v>
       </c>
       <c r="BG11" s="77">
-        <v>55993.465608453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55977.98</v>
+      </c>
+      <c r="BH11" s="77">
+        <v>55142.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74"/>
       <c r="B12" s="74" t="s">
         <v>167</v>
@@ -37310,43 +37850,46 @@
         <v>760931.91145135812</v>
       </c>
       <c r="AV12" s="77">
-        <v>194291.96318649536</v>
+        <v>194291.96</v>
       </c>
       <c r="AW12" s="77">
-        <v>197612.11008994706</v>
+        <v>197612.11</v>
       </c>
       <c r="AX12" s="77">
-        <v>200549.94632852438</v>
+        <v>200549.95</v>
       </c>
       <c r="AY12" s="77">
-        <v>203922.14193551344</v>
+        <v>203922.14</v>
       </c>
       <c r="AZ12" s="78">
-        <v>796376.16154048021</v>
+        <v>796376.16</v>
       </c>
       <c r="BA12" s="77">
-        <v>202687.64004843999</v>
+        <v>202687.64</v>
       </c>
       <c r="BB12" s="77">
-        <v>202272.47563808999</v>
+        <v>202272.48</v>
       </c>
       <c r="BC12" s="77">
-        <v>204200.69226829999</v>
+        <v>204200.69</v>
       </c>
       <c r="BD12" s="77">
-        <v>205377.48019942999</v>
+        <v>205377.48</v>
       </c>
       <c r="BE12" s="78">
-        <v>814538.28815426002</v>
+        <v>814538.29</v>
       </c>
       <c r="BF12" s="77">
-        <v>205307.08591448999</v>
+        <v>205299.58</v>
       </c>
       <c r="BG12" s="77">
-        <v>206475.86576571999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206486.95</v>
+      </c>
+      <c r="BH12" s="77">
+        <v>208880.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74"/>
       <c r="B13" s="79" t="s">
         <v>168</v>
@@ -37487,43 +38030,46 @@
         <v>391786.65992074751</v>
       </c>
       <c r="AV13" s="77">
-        <v>101012.97803617021</v>
+        <v>101012.98</v>
       </c>
       <c r="AW13" s="77">
-        <v>102066.59339966916</v>
+        <v>102066.59</v>
       </c>
       <c r="AX13" s="77">
-        <v>107270.27167149411</v>
+        <v>107270.27</v>
       </c>
       <c r="AY13" s="77">
-        <v>107293.81067943409</v>
+        <v>107293.81</v>
       </c>
       <c r="AZ13" s="78">
-        <v>417643.65378676757</v>
+        <v>417643.65</v>
       </c>
       <c r="BA13" s="77">
-        <v>108951.28609227001</v>
+        <v>108951.29</v>
       </c>
       <c r="BB13" s="77">
-        <v>104126.72798633001</v>
+        <v>104126.73</v>
       </c>
       <c r="BC13" s="77">
-        <v>109472.23916818001</v>
+        <v>109472.24</v>
       </c>
       <c r="BD13" s="77">
-        <v>107984.43487352</v>
+        <v>107984.43</v>
       </c>
       <c r="BE13" s="78">
-        <v>430534.68812030001</v>
+        <v>430534.69</v>
       </c>
       <c r="BF13" s="77">
-        <v>109281.98905865999</v>
+        <v>109281.99</v>
       </c>
       <c r="BG13" s="77">
-        <v>105378.99407324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105215.47</v>
+      </c>
+      <c r="BH13" s="77">
+        <v>112139.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
       <c r="B14" s="79" t="s">
         <v>169</v>
@@ -37664,43 +38210,46 @@
         <v>1407373.0104175394</v>
       </c>
       <c r="AV14" s="77">
-        <v>357092.5788984698</v>
+        <v>357092.58</v>
       </c>
       <c r="AW14" s="77">
-        <v>364618.75376112928</v>
+        <v>364618.75</v>
       </c>
       <c r="AX14" s="77">
-        <v>376648.1273105205</v>
+        <v>376648.13</v>
       </c>
       <c r="AY14" s="77">
-        <v>376325.65307255363</v>
+        <v>376325.65</v>
       </c>
       <c r="AZ14" s="78">
-        <v>1474685.1130426733</v>
+        <v>1474685.11</v>
       </c>
       <c r="BA14" s="77">
-        <v>351048.99012511998</v>
+        <v>351048.99</v>
       </c>
       <c r="BB14" s="77">
-        <v>308723.13704243</v>
+        <v>308723.14</v>
       </c>
       <c r="BC14" s="77">
-        <v>333097.95096498</v>
+        <v>333097.95</v>
       </c>
       <c r="BD14" s="77">
-        <v>340754.25083466002</v>
+        <v>340754.25</v>
       </c>
       <c r="BE14" s="78">
-        <v>1333624.3289671999</v>
+        <v>1333624.33</v>
       </c>
       <c r="BF14" s="77">
-        <v>336156.11141890002</v>
+        <v>336189.53</v>
       </c>
       <c r="BG14" s="77">
-        <v>341410.39102510997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341021.6</v>
+      </c>
+      <c r="BH14" s="77">
+        <v>332400.59000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74"/>
       <c r="B15" s="74" t="s">
         <v>199</v>
@@ -37841,43 +38390,46 @@
         <v>530343.78433411242</v>
       </c>
       <c r="AV15" s="77">
-        <v>135257.07158989875</v>
+        <v>135257.07</v>
       </c>
       <c r="AW15" s="77">
-        <v>137644.2843472535</v>
+        <v>137644.28</v>
       </c>
       <c r="AX15" s="77">
-        <v>143615.96167348087</v>
+        <v>143615.96</v>
       </c>
       <c r="AY15" s="77">
-        <v>145450.14775153119</v>
+        <v>145450.15</v>
       </c>
       <c r="AZ15" s="78">
-        <v>561967.46536216431</v>
+        <v>561967.47</v>
       </c>
       <c r="BA15" s="77">
-        <v>138555.07098600999</v>
+        <v>138555.07</v>
       </c>
       <c r="BB15" s="77">
-        <v>114893.60263568</v>
+        <v>114893.6</v>
       </c>
       <c r="BC15" s="77">
-        <v>127901.42345448</v>
+        <v>127901.42</v>
       </c>
       <c r="BD15" s="77">
-        <v>134856.22501875</v>
+        <v>134856.23000000001</v>
       </c>
       <c r="BE15" s="78">
-        <v>516206.32209491997</v>
+        <v>516206.32</v>
       </c>
       <c r="BF15" s="77">
-        <v>132802.36344037001</v>
+        <v>132802.35999999999</v>
       </c>
       <c r="BG15" s="77">
-        <v>134180.69892219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133713.92000000001</v>
+      </c>
+      <c r="BH15" s="77">
+        <v>131068.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74"/>
       <c r="B16" s="74" t="s">
         <v>171</v>
@@ -38018,43 +38570,46 @@
         <v>267430.25104391121</v>
       </c>
       <c r="AV16" s="77">
-        <v>67619.539812790186</v>
+        <v>67619.539999999994</v>
       </c>
       <c r="AW16" s="77">
-        <v>68464.134886702042</v>
+        <v>68464.13</v>
       </c>
       <c r="AX16" s="77">
-        <v>70112.975983769793</v>
+        <v>70112.98</v>
       </c>
       <c r="AY16" s="77">
-        <v>69490.743780975012</v>
+        <v>69490.740000000005</v>
       </c>
       <c r="AZ16" s="78">
-        <v>275687.39446423703</v>
+        <v>275687.39</v>
       </c>
       <c r="BA16" s="77">
-        <v>70090.500992150002</v>
+        <v>70090.5</v>
       </c>
       <c r="BB16" s="77">
-        <v>66254.541378994007</v>
+        <v>66254.539999999994</v>
       </c>
       <c r="BC16" s="77">
-        <v>68667.917137715005</v>
+        <v>68667.92</v>
       </c>
       <c r="BD16" s="77">
-        <v>68876.576074762997</v>
+        <v>68876.58</v>
       </c>
       <c r="BE16" s="78">
-        <v>273889.53558362002</v>
+        <v>273889.53999999998</v>
       </c>
       <c r="BF16" s="77">
-        <v>69114.859893065004</v>
+        <v>69114.86</v>
       </c>
       <c r="BG16" s="77">
-        <v>69318.081822481006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69285.990000000005</v>
+      </c>
+      <c r="BH16" s="77">
+        <v>69686.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74"/>
       <c r="B17" s="74"/>
       <c r="C17" s="75"/>
@@ -38114,8 +38669,9 @@
       <c r="BE17" s="78"/>
       <c r="BF17" s="77"/>
       <c r="BG17" s="77"/>
-    </row>
-    <row r="18" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH17" s="77"/>
+    </row>
+    <row r="18" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>172</v>
       </c>
@@ -38258,43 +38814,46 @@
         <v>122969.84338637487</v>
       </c>
       <c r="AV18" s="77">
-        <v>34348.442563931967</v>
+        <v>34348.44</v>
       </c>
       <c r="AW18" s="77">
-        <v>35070.618629581702</v>
+        <v>35070.620000000003</v>
       </c>
       <c r="AX18" s="77">
-        <v>33238.232535472642</v>
+        <v>33238.230000000003</v>
       </c>
       <c r="AY18" s="77">
-        <v>33369.287583376499</v>
+        <v>33369.29</v>
       </c>
       <c r="AZ18" s="78">
-        <v>136026.5813123628</v>
+        <v>136026.57999999999</v>
       </c>
       <c r="BA18" s="77">
-        <v>32625.947155867001</v>
+        <v>32625.95</v>
       </c>
       <c r="BB18" s="77">
-        <v>32327.420549760001</v>
+        <v>32327.42</v>
       </c>
       <c r="BC18" s="77">
-        <v>32584.339353561001</v>
+        <v>32584.34</v>
       </c>
       <c r="BD18" s="77">
-        <v>32655.613756481001</v>
+        <v>32655.61</v>
       </c>
       <c r="BE18" s="78">
-        <v>130193.32081567</v>
+        <v>130193.32</v>
       </c>
       <c r="BF18" s="77">
-        <v>31311.389130418</v>
+        <v>31324.81</v>
       </c>
       <c r="BG18" s="77">
-        <v>33659.552394058999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33668.71</v>
+      </c>
+      <c r="BH18" s="77">
+        <v>33547.379999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74"/>
       <c r="B19" s="74"/>
       <c r="C19" s="75"/>
@@ -38354,8 +38913,9 @@
       <c r="BE19" s="78"/>
       <c r="BF19" s="77"/>
       <c r="BG19" s="77"/>
-    </row>
-    <row r="20" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH19" s="77"/>
+    </row>
+    <row r="20" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>173</v>
       </c>
@@ -38498,43 +39058,46 @@
         <v>828876.59278917173</v>
       </c>
       <c r="AV20" s="71">
-        <v>153741.27918038718</v>
+        <v>153741.28</v>
       </c>
       <c r="AW20" s="71">
-        <v>209461.82543685907</v>
+        <v>209461.83</v>
       </c>
       <c r="AX20" s="71">
-        <v>207772.25046337873</v>
+        <v>207772.25</v>
       </c>
       <c r="AY20" s="71">
-        <v>284955.43809828314</v>
+        <v>284955.44</v>
       </c>
       <c r="AZ20" s="72">
-        <v>855930.79317890806</v>
+        <v>855930.79</v>
       </c>
       <c r="BA20" s="71">
-        <v>159531.44894415</v>
+        <v>159531.45000000001</v>
       </c>
       <c r="BB20" s="71">
-        <v>195012.92543992001</v>
+        <v>195012.93</v>
       </c>
       <c r="BC20" s="71">
-        <v>228050.19770580999</v>
+        <v>228050.2</v>
       </c>
       <c r="BD20" s="71">
-        <v>289963.73532302002</v>
+        <v>289963.74</v>
       </c>
       <c r="BE20" s="72">
-        <v>872558.30741290003</v>
+        <v>872558.31</v>
       </c>
       <c r="BF20" s="71">
-        <v>163271.81271406001</v>
+        <v>163645.54999999999</v>
       </c>
       <c r="BG20" s="71">
-        <v>210734.47560676999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210680.33</v>
+      </c>
+      <c r="BH20" s="71">
+        <v>229548.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74"/>
       <c r="B21" s="74" t="s">
         <v>174</v>
@@ -38675,43 +39238,46 @@
         <v>508010.61263418879</v>
       </c>
       <c r="AV21" s="77">
-        <v>94851.372114666607</v>
+        <v>94851.37</v>
       </c>
       <c r="AW21" s="77">
-        <v>131551.14995927442</v>
+        <v>131551.15</v>
       </c>
       <c r="AX21" s="77">
-        <v>126625.58484533484</v>
+        <v>126625.58</v>
       </c>
       <c r="AY21" s="77">
-        <v>178444.3459827317</v>
+        <v>178444.35</v>
       </c>
       <c r="AZ21" s="78">
-        <v>531472.4529020075</v>
+        <v>531472.44999999995</v>
       </c>
       <c r="BA21" s="77">
-        <v>96821.526772789002</v>
+        <v>96821.53</v>
       </c>
       <c r="BB21" s="77">
-        <v>116105.39116779</v>
+        <v>116105.39</v>
       </c>
       <c r="BC21" s="77">
-        <v>133726.00345794999</v>
+        <v>133726</v>
       </c>
       <c r="BD21" s="77">
-        <v>180035.16737014</v>
+        <v>180035.17</v>
       </c>
       <c r="BE21" s="78">
-        <v>526688.08876866999</v>
+        <v>526688.09</v>
       </c>
       <c r="BF21" s="77">
-        <v>92403.164802386003</v>
+        <v>92570.11</v>
       </c>
       <c r="BG21" s="77">
-        <v>126439.5141923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126543.97</v>
+      </c>
+      <c r="BH21" s="77">
+        <v>121385.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74"/>
       <c r="B22" s="74" t="s">
         <v>175</v>
@@ -38852,43 +39418,46 @@
         <v>320865.980154983</v>
       </c>
       <c r="AV22" s="77">
-        <v>58889.907065720574</v>
+        <v>58889.91</v>
       </c>
       <c r="AW22" s="77">
-        <v>77910.675477584649</v>
+        <v>77910.679999999993</v>
       </c>
       <c r="AX22" s="77">
-        <v>81146.665618043873</v>
+        <v>81146.67</v>
       </c>
       <c r="AY22" s="77">
-        <v>106511.09211555147</v>
+        <v>106511.09</v>
       </c>
       <c r="AZ22" s="78">
-        <v>324458.34027690056</v>
+        <v>324458.34000000003</v>
       </c>
       <c r="BA22" s="77">
-        <v>62709.922171361999</v>
+        <v>62709.919999999998</v>
       </c>
       <c r="BB22" s="77">
-        <v>78907.534272125995</v>
+        <v>78907.53</v>
       </c>
       <c r="BC22" s="77">
-        <v>94324.194247861</v>
+        <v>94324.19</v>
       </c>
       <c r="BD22" s="77">
-        <v>109928.56795288</v>
+        <v>109928.57</v>
       </c>
       <c r="BE22" s="78">
-        <v>345870.21864422999</v>
+        <v>345870.22</v>
       </c>
       <c r="BF22" s="77">
-        <v>70868.647911673004</v>
+        <v>71075.429999999993</v>
       </c>
       <c r="BG22" s="77">
-        <v>84294.961414471996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84136.36</v>
+      </c>
+      <c r="BH22" s="77">
+        <v>108163.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80"/>
       <c r="B23" s="81"/>
       <c r="C23" s="75"/>
@@ -38948,8 +39517,9 @@
       <c r="BE23" s="78"/>
       <c r="BF23" s="77"/>
       <c r="BG23" s="77"/>
-    </row>
-    <row r="24" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH23" s="77"/>
+    </row>
+    <row r="24" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="113" t="s">
         <v>200</v>
       </c>
@@ -39092,43 +39662,46 @@
         <v>3444310.2515177629</v>
       </c>
       <c r="AV24" s="71">
-        <v>861640.88684812363</v>
+        <v>861640.89</v>
       </c>
       <c r="AW24" s="71">
-        <v>865774.7030082877</v>
+        <v>865774.7</v>
       </c>
       <c r="AX24" s="71">
-        <v>917553.02521486871</v>
+        <v>917553.03</v>
       </c>
       <c r="AY24" s="71">
-        <v>952695.51044351235</v>
+        <v>952695.51</v>
       </c>
       <c r="AZ24" s="72">
-        <v>3597664.1255147918</v>
+        <v>3597664.13</v>
       </c>
       <c r="BA24" s="71">
-        <v>876315.83836695005</v>
+        <v>876315.84</v>
       </c>
       <c r="BB24" s="71">
-        <v>791204.43463337002</v>
+        <v>791204.43</v>
       </c>
       <c r="BC24" s="71">
-        <v>858097.82839634002</v>
+        <v>858097.83</v>
       </c>
       <c r="BD24" s="71">
-        <v>894086.09534467</v>
+        <v>894086.1</v>
       </c>
       <c r="BE24" s="72">
-        <v>3419704.1967413002</v>
+        <v>3419704.2</v>
       </c>
       <c r="BF24" s="71">
-        <v>874340.97417096002</v>
+        <v>874340.97</v>
       </c>
       <c r="BG24" s="71">
-        <v>850840.80205503001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>850840.8</v>
+      </c>
+      <c r="BH24" s="71">
+        <v>890226.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
       <c r="B25" s="74" t="s">
         <v>176</v>
@@ -39269,43 +39842,46 @@
         <v>2550271.5877725091</v>
       </c>
       <c r="AV25" s="77">
-        <v>645280.74905886198</v>
+        <v>645280.75</v>
       </c>
       <c r="AW25" s="77">
-        <v>648328.85972736496</v>
+        <v>648328.86</v>
       </c>
       <c r="AX25" s="77">
-        <v>679372.08692525094</v>
+        <v>679372.09</v>
       </c>
       <c r="AY25" s="77">
-        <v>714321.39260208898</v>
+        <v>714321.39</v>
       </c>
       <c r="AZ25" s="78">
-        <v>2687303.088313567</v>
+        <v>2687303.09</v>
       </c>
       <c r="BA25" s="77">
-        <v>663115.70786999003</v>
+        <v>663115.71</v>
       </c>
       <c r="BB25" s="77">
-        <v>614245.37194761995</v>
+        <v>614245.37</v>
       </c>
       <c r="BC25" s="77">
-        <v>641327.25005744002</v>
+        <v>641327.25</v>
       </c>
       <c r="BD25" s="77">
-        <v>666934.63786677003</v>
+        <v>666934.64</v>
       </c>
       <c r="BE25" s="78">
-        <v>2585622.9677418</v>
+        <v>2585622.9700000002</v>
       </c>
       <c r="BF25" s="77">
-        <v>658187.11415932002</v>
+        <v>658187.11</v>
       </c>
       <c r="BG25" s="77">
-        <v>640998.60980622994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>640998.61</v>
+      </c>
+      <c r="BH25" s="77">
+        <v>662850.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
       <c r="B26" s="74" t="s">
         <v>177</v>
@@ -39446,43 +40022,46 @@
         <v>369427.3782380356</v>
       </c>
       <c r="AV26" s="77">
-        <v>91463.634922273995</v>
+        <v>91463.63</v>
       </c>
       <c r="AW26" s="77">
-        <v>88203.057905672598</v>
+        <v>88203.06</v>
       </c>
       <c r="AX26" s="77">
-        <v>105040.79994263699</v>
+        <v>105040.8</v>
       </c>
       <c r="AY26" s="77">
-        <v>102294.38459867099</v>
+        <v>102294.38</v>
       </c>
       <c r="AZ26" s="78">
-        <v>387001.87736925459</v>
+        <v>387001.88</v>
       </c>
       <c r="BA26" s="77">
-        <v>87877.916588776003</v>
+        <v>87877.92</v>
       </c>
       <c r="BB26" s="77">
-        <v>76857.552906779005</v>
+        <v>76857.55</v>
       </c>
       <c r="BC26" s="77">
-        <v>82968.607230837995</v>
+        <v>82968.61</v>
       </c>
       <c r="BD26" s="77">
-        <v>94548.981200647002</v>
+        <v>94548.98</v>
       </c>
       <c r="BE26" s="78">
-        <v>342253.05792703998</v>
+        <v>342253.06</v>
       </c>
       <c r="BF26" s="77">
-        <v>90937.413097979996</v>
+        <v>90937.41</v>
       </c>
       <c r="BG26" s="77">
-        <v>91501.455923379996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91501.46</v>
+      </c>
+      <c r="BH26" s="77">
+        <v>92545.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80"/>
       <c r="B27" s="74" t="s">
         <v>178</v>
@@ -39623,43 +40202,46 @@
         <v>201829.66401689069</v>
       </c>
       <c r="AV27" s="77">
-        <v>47346.782136014903</v>
+        <v>47346.78</v>
       </c>
       <c r="AW27" s="77">
-        <v>47270.547517077197</v>
+        <v>47270.55</v>
       </c>
       <c r="AX27" s="77">
-        <v>48779.610714553499</v>
+        <v>48779.61</v>
       </c>
       <c r="AY27" s="77">
-        <v>50123.258612139703</v>
+        <v>50123.26</v>
       </c>
       <c r="AZ27" s="78">
-        <v>193520.19897978532</v>
+        <v>193520.2</v>
       </c>
       <c r="BA27" s="77">
-        <v>48635.145353646003</v>
+        <v>48635.15</v>
       </c>
       <c r="BB27" s="77">
-        <v>31142.971979197999</v>
+        <v>31142.97</v>
       </c>
       <c r="BC27" s="77">
-        <v>41644.517309627001</v>
+        <v>41644.519999999997</v>
       </c>
       <c r="BD27" s="77">
-        <v>46861.890202923998</v>
+        <v>46861.89</v>
       </c>
       <c r="BE27" s="78">
-        <v>168284.52484540001</v>
+        <v>168284.52</v>
       </c>
       <c r="BF27" s="77">
-        <v>49647.053494079999</v>
+        <v>49647.05</v>
       </c>
       <c r="BG27" s="77">
-        <v>44300.91702696</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44300.92</v>
+      </c>
+      <c r="BH27" s="77">
+        <v>45395.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
       <c r="B28" s="74" t="s">
         <v>179</v>
@@ -39800,43 +40382,46 @@
         <v>59995.505797751204</v>
       </c>
       <c r="AV28" s="77">
-        <v>14026.391148917101</v>
+        <v>14026.39</v>
       </c>
       <c r="AW28" s="77">
-        <v>13741.140464842099</v>
+        <v>13741.14</v>
       </c>
       <c r="AX28" s="77">
-        <v>15183.2429952731</v>
+        <v>15183.24</v>
       </c>
       <c r="AY28" s="77">
-        <v>15162.7313127662</v>
+        <v>15162.73</v>
       </c>
       <c r="AZ28" s="78">
-        <v>58113.505921798504</v>
+        <v>58113.51</v>
       </c>
       <c r="BA28" s="77">
-        <v>14361.450735480999</v>
+        <v>14361.45</v>
       </c>
       <c r="BB28" s="77">
-        <v>10155.898637987</v>
+        <v>10155.9</v>
       </c>
       <c r="BC28" s="77">
-        <v>12870.607798438001</v>
+        <v>12870.61</v>
       </c>
       <c r="BD28" s="77">
-        <v>14591.214871458</v>
+        <v>14591.21</v>
       </c>
       <c r="BE28" s="78">
-        <v>51979.172043364</v>
+        <v>51979.17</v>
       </c>
       <c r="BF28" s="77">
-        <v>13661.19772355</v>
+        <v>13661.2</v>
       </c>
       <c r="BG28" s="77">
-        <v>13881.63476687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13881.63</v>
+      </c>
+      <c r="BH28" s="77">
+        <v>14154.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
       <c r="B29" s="74" t="s">
         <v>181</v>
@@ -39977,19 +40562,19 @@
         <v>180624.1366480077</v>
       </c>
       <c r="AV29" s="77">
-        <v>43504.458933862501</v>
+        <v>43504.46</v>
       </c>
       <c r="AW29" s="77">
-        <v>46918.682650520001</v>
+        <v>46918.68</v>
       </c>
       <c r="AX29" s="77">
-        <v>47243.727504891198</v>
+        <v>47243.73</v>
       </c>
       <c r="AY29" s="77">
-        <v>52084.230069999998</v>
+        <v>52084.23</v>
       </c>
       <c r="AZ29" s="78">
-        <v>189751.0991592737</v>
+        <v>189751.1</v>
       </c>
       <c r="BA29" s="77">
         <v>43485</v>
@@ -40001,19 +40586,22 @@
         <v>58146</v>
       </c>
       <c r="BD29" s="77">
-        <v>54378.493369946998</v>
+        <v>54378.49</v>
       </c>
       <c r="BE29" s="78">
-        <v>195940.49336995001</v>
+        <v>195940.49</v>
       </c>
       <c r="BF29" s="77">
-        <v>42970.524755769999</v>
+        <v>42970.52</v>
       </c>
       <c r="BG29" s="77">
-        <v>40312.899594139999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40312.9</v>
+      </c>
+      <c r="BH29" s="77">
+        <v>54537.760000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
       <c r="B30" s="74" t="s">
         <v>201</v>
@@ -40154,43 +40742,46 @@
         <v>82161.9790445689</v>
       </c>
       <c r="AV30" s="77">
-        <v>20018.8706481931</v>
+        <v>20018.87</v>
       </c>
       <c r="AW30" s="77">
-        <v>21312.414742810899</v>
+        <v>21312.41</v>
       </c>
       <c r="AX30" s="77">
-        <v>21933.557132262998</v>
+        <v>21933.56</v>
       </c>
       <c r="AY30" s="77">
-        <v>18709.5132478464</v>
+        <v>18709.509999999998</v>
       </c>
       <c r="AZ30" s="78">
-        <v>81974.355771113391</v>
+        <v>81974.36</v>
       </c>
       <c r="BA30" s="77">
-        <v>18840.617819063998</v>
+        <v>18840.62</v>
       </c>
       <c r="BB30" s="77">
-        <v>18871.639161782001</v>
+        <v>18871.64</v>
       </c>
       <c r="BC30" s="77">
-        <v>21140.846000000001</v>
+        <v>21140.85</v>
       </c>
       <c r="BD30" s="77">
-        <v>16770.877832931001</v>
+        <v>16770.88</v>
       </c>
       <c r="BE30" s="78">
-        <v>75623.980813777001</v>
+        <v>75623.98</v>
       </c>
       <c r="BF30" s="77">
-        <v>18937.67094027</v>
+        <v>18937.669999999998</v>
       </c>
       <c r="BG30" s="77">
-        <v>19845.28493745</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19845.28</v>
+      </c>
+      <c r="BH30" s="77">
+        <v>20742.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
       <c r="B31" s="81"/>
       <c r="C31" s="75"/>
@@ -40250,8 +40841,9 @@
       <c r="BE31" s="78"/>
       <c r="BF31" s="77"/>
       <c r="BG31" s="77"/>
-    </row>
-    <row r="32" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH31" s="77"/>
+    </row>
+    <row r="32" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="113" t="s">
         <v>202</v>
       </c>
@@ -40394,43 +40986,46 @@
         <v>197369.63504602286</v>
       </c>
       <c r="AV32" s="71">
-        <v>61523.990657536313</v>
+        <v>61523.99</v>
       </c>
       <c r="AW32" s="71">
-        <v>59179.553855919352</v>
+        <v>59179.55</v>
       </c>
       <c r="AX32" s="71">
-        <v>35709.165561760201</v>
+        <v>35709.17</v>
       </c>
       <c r="AY32" s="71">
-        <v>-26458.870407764523</v>
+        <v>-26458.87</v>
       </c>
       <c r="AZ32" s="72">
-        <v>129953.83966745135</v>
+        <v>129953.84</v>
       </c>
       <c r="BA32" s="71">
-        <v>50546.325019766002</v>
+        <v>50546.33</v>
       </c>
       <c r="BB32" s="71">
         <v>66004.87</v>
       </c>
       <c r="BC32" s="71">
-        <v>-7509.0660542660999</v>
+        <v>-7509.07</v>
       </c>
       <c r="BD32" s="71">
-        <v>-57707.998072189999</v>
+        <v>-57708</v>
       </c>
       <c r="BE32" s="72">
-        <v>51334.130893310001</v>
+        <v>51334.13</v>
       </c>
       <c r="BF32" s="71">
-        <v>61381.42</v>
+        <v>61381.02</v>
       </c>
       <c r="BG32" s="71">
-        <v>56016.227550000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56016.23</v>
+      </c>
+      <c r="BH32" s="71">
+        <v>8033.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="80"/>
       <c r="B33" s="81"/>
       <c r="C33" s="75"/>
@@ -40490,8 +41085,9 @@
       <c r="BE33" s="78"/>
       <c r="BF33" s="77"/>
       <c r="BG33" s="77"/>
-    </row>
-    <row r="34" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH33" s="77"/>
+    </row>
+    <row r="34" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
         <v>203</v>
       </c>
@@ -40634,43 +41230,46 @@
         <v>2286394.8930979995</v>
       </c>
       <c r="AV34" s="71">
-        <v>545365.37992836803</v>
+        <v>545365.38</v>
       </c>
       <c r="AW34" s="71">
-        <v>538495.23461019096</v>
+        <v>538495.23</v>
       </c>
       <c r="AX34" s="71">
-        <v>598875.11727269029</v>
+        <v>598875.12</v>
       </c>
       <c r="AY34" s="71">
-        <v>583943.57917285559</v>
+        <v>583943.57999999996</v>
       </c>
       <c r="AZ34" s="72">
-        <v>2266679.3109841044</v>
+        <v>2266679.31</v>
       </c>
       <c r="BA34" s="71">
-        <v>547350.28210088005</v>
+        <v>547350.28</v>
       </c>
       <c r="BB34" s="71">
-        <v>473792.20619291998</v>
+        <v>473792.21</v>
       </c>
       <c r="BC34" s="71">
-        <v>529063.91790323996</v>
+        <v>529063.92000000004</v>
       </c>
       <c r="BD34" s="71">
-        <v>541831.54402491997</v>
+        <v>541831.54</v>
       </c>
       <c r="BE34" s="72">
-        <v>2092037.950222</v>
+        <v>2092037.95</v>
       </c>
       <c r="BF34" s="71">
-        <v>585812.83914824994</v>
+        <v>586165.15</v>
       </c>
       <c r="BG34" s="71">
-        <v>624378.86883356003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>625307.93999999994</v>
+      </c>
+      <c r="BH34" s="71">
+        <v>683336.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="80"/>
       <c r="B35" s="84" t="s">
         <v>182</v>
@@ -40811,43 +41410,46 @@
         <v>2038478.4374130899</v>
       </c>
       <c r="AV35" s="77">
-        <v>486996.57514906977</v>
+        <v>486996.58</v>
       </c>
       <c r="AW35" s="77">
-        <v>478900.51520410675</v>
+        <v>478900.52</v>
       </c>
       <c r="AX35" s="77">
-        <v>530823.34365497727</v>
+        <v>530823.34</v>
       </c>
       <c r="AY35" s="77">
-        <v>521473.35728907736</v>
+        <v>521473.36</v>
       </c>
       <c r="AZ35" s="78">
-        <v>2018193.7912972309</v>
+        <v>2018193.79</v>
       </c>
       <c r="BA35" s="77">
-        <v>499538.17369139998</v>
+        <v>499538.17</v>
       </c>
       <c r="BB35" s="77">
-        <v>449974.71731203998</v>
+        <v>449974.72</v>
       </c>
       <c r="BC35" s="77">
-        <v>502156.14241761999</v>
+        <v>502156.14</v>
       </c>
       <c r="BD35" s="77">
-        <v>512867.69113965001</v>
+        <v>512867.69</v>
       </c>
       <c r="BE35" s="78">
-        <v>1964536.7245606999</v>
+        <v>1964536.72</v>
       </c>
       <c r="BF35" s="77">
-        <v>559140.59096022998</v>
+        <v>559140.59</v>
       </c>
       <c r="BG35" s="77">
-        <v>599317.93508674996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>599278.63</v>
+      </c>
+      <c r="BH35" s="77">
+        <v>655864.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="80"/>
       <c r="B36" s="111" t="s">
         <v>183</v>
@@ -40988,43 +41590,46 @@
         <v>1805236.002788848</v>
       </c>
       <c r="AV36" s="77">
-        <v>433669.78891335486</v>
+        <v>433669.79</v>
       </c>
       <c r="AW36" s="77">
-        <v>437311.24917927827</v>
+        <v>437311.25</v>
       </c>
       <c r="AX36" s="77">
-        <v>480412.30187360838</v>
+        <v>480412.3</v>
       </c>
       <c r="AY36" s="77">
-        <v>476121.50333029666</v>
+        <v>476121.5</v>
       </c>
       <c r="AZ36" s="78">
-        <v>1827514.8432965381</v>
+        <v>1827514.84</v>
       </c>
       <c r="BA36" s="77">
-        <v>454382.61064074002</v>
+        <v>454382.61</v>
       </c>
       <c r="BB36" s="77">
-        <v>406377.70197628002</v>
+        <v>406377.7</v>
       </c>
       <c r="BC36" s="77">
-        <v>458491.71189969999</v>
+        <v>458491.71</v>
       </c>
       <c r="BD36" s="77">
-        <v>466271.60550061002</v>
+        <v>466271.61</v>
       </c>
       <c r="BE36" s="78">
-        <v>1785523.6300172999</v>
+        <v>1785523.63</v>
       </c>
       <c r="BF36" s="77">
-        <v>507224.48659392999</v>
+        <v>507224.49</v>
       </c>
       <c r="BG36" s="77">
-        <v>544466.06868805003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544426.81999999995</v>
+      </c>
+      <c r="BH36" s="77">
+        <v>608664.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="80"/>
       <c r="B37" s="111" t="s">
         <v>184</v>
@@ -41165,43 +41770,46 @@
         <v>233242.43462424167</v>
       </c>
       <c r="AV37" s="77">
-        <v>53326.786235714884</v>
+        <v>53326.79</v>
       </c>
       <c r="AW37" s="77">
-        <v>41589.266024828488</v>
+        <v>41589.269999999997</v>
       </c>
       <c r="AX37" s="77">
-        <v>50411.041781368884</v>
+        <v>50411.040000000001</v>
       </c>
       <c r="AY37" s="77">
-        <v>45351.853958780724</v>
+        <v>45351.85</v>
       </c>
       <c r="AZ37" s="78">
-        <v>190678.94800069297</v>
+        <v>190678.95</v>
       </c>
       <c r="BA37" s="77">
-        <v>45155.563050659999</v>
+        <v>45155.56</v>
       </c>
       <c r="BB37" s="77">
-        <v>43597.015335764001</v>
+        <v>43597.02</v>
       </c>
       <c r="BC37" s="77">
-        <v>43664.430517923996</v>
+        <v>43664.43</v>
       </c>
       <c r="BD37" s="77">
-        <v>46596.085639044999</v>
+        <v>46596.09</v>
       </c>
       <c r="BE37" s="78">
-        <v>179013.09454339001</v>
+        <v>179013.09</v>
       </c>
       <c r="BF37" s="77">
-        <v>51916.104366300002</v>
+        <v>51916.1</v>
       </c>
       <c r="BG37" s="77">
-        <v>54851.866398705999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54851.81</v>
+      </c>
+      <c r="BH37" s="77">
+        <v>47200.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="80"/>
       <c r="B38" s="81" t="s">
         <v>185</v>
@@ -41342,43 +41950,46 @@
         <v>247916.45568490966</v>
       </c>
       <c r="AV38" s="77">
-        <v>58368.804779298211</v>
+        <v>58368.800000000003</v>
       </c>
       <c r="AW38" s="77">
-        <v>59594.719406084172</v>
+        <v>59594.720000000001</v>
       </c>
       <c r="AX38" s="77">
-        <v>68051.773617713057</v>
+        <v>68051.77</v>
       </c>
       <c r="AY38" s="77">
-        <v>62470.221883778271</v>
+        <v>62470.22</v>
       </c>
       <c r="AZ38" s="78">
-        <v>248485.51968687371</v>
+        <v>248485.52</v>
       </c>
       <c r="BA38" s="77">
-        <v>47812.108409474997</v>
+        <v>47812.11</v>
       </c>
       <c r="BB38" s="77">
-        <v>23817.488880876001</v>
+        <v>23817.49</v>
       </c>
       <c r="BC38" s="77">
-        <v>26907.775485613001</v>
+        <v>26907.78</v>
       </c>
       <c r="BD38" s="77">
-        <v>28963.852885271001</v>
+        <v>28963.85</v>
       </c>
       <c r="BE38" s="78">
-        <v>127501.22566123999</v>
+        <v>127501.23</v>
       </c>
       <c r="BF38" s="77">
-        <v>26672.248188024001</v>
+        <v>27024.560000000001</v>
       </c>
       <c r="BG38" s="77">
-        <v>25060.933746807001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26029.31</v>
+      </c>
+      <c r="BH38" s="77">
+        <v>27471.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80"/>
       <c r="B39" s="81"/>
       <c r="C39" s="75"/>
@@ -41438,8 +42049,9 @@
       <c r="BE39" s="78"/>
       <c r="BF39" s="77"/>
       <c r="BG39" s="77"/>
-    </row>
-    <row r="40" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH39" s="77"/>
+    </row>
+    <row r="40" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="113" t="s">
         <v>204</v>
       </c>
@@ -41582,43 +42194,46 @@
         <v>2203269.9402990951</v>
       </c>
       <c r="AV40" s="71">
-        <v>489345.57970132079</v>
+        <v>489345.58</v>
       </c>
       <c r="AW40" s="71">
-        <v>490895.01433613076</v>
+        <v>490895.01</v>
       </c>
       <c r="AX40" s="71">
-        <v>520866.14417825779</v>
+        <v>520866.14</v>
       </c>
       <c r="AY40" s="71">
-        <v>539247.36354465596</v>
+        <v>539247.35999999999</v>
       </c>
       <c r="AZ40" s="72">
-        <v>2040354.1017603655</v>
+        <v>2040354.1</v>
       </c>
       <c r="BA40" s="71">
-        <v>471650.12850679999</v>
+        <v>471650.13</v>
       </c>
       <c r="BB40" s="71">
-        <v>401108.76678564999</v>
+        <v>401108.77</v>
       </c>
       <c r="BC40" s="71">
-        <v>401050.41494162002</v>
+        <v>401050.41</v>
       </c>
       <c r="BD40" s="71">
-        <v>466357.01928804</v>
+        <v>466357.02</v>
       </c>
       <c r="BE40" s="72">
-        <v>1740166.3295221</v>
+        <v>1740166.33</v>
       </c>
       <c r="BF40" s="71">
-        <v>497403.95346182998</v>
+        <v>497018.66</v>
       </c>
       <c r="BG40" s="71">
-        <v>526326.28968447004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528342.29</v>
+      </c>
+      <c r="BH40" s="71">
+        <v>521803.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="80"/>
       <c r="B41" s="84" t="s">
         <v>182</v>
@@ -41759,43 +42374,46 @@
         <v>1915577.8448647636</v>
       </c>
       <c r="AV41" s="77">
-        <v>420999.39947629441</v>
+        <v>420999.4</v>
       </c>
       <c r="AW41" s="77">
-        <v>421507.50273653021</v>
+        <v>421507.5</v>
       </c>
       <c r="AX41" s="77">
-        <v>448077.38572775543</v>
+        <v>448077.39</v>
       </c>
       <c r="AY41" s="77">
-        <v>461416.14841529395</v>
+        <v>461416.15</v>
       </c>
       <c r="AZ41" s="78">
-        <v>1752000.4363558742</v>
+        <v>1752000.44</v>
       </c>
       <c r="BA41" s="77">
-        <v>410946.44091584999</v>
+        <v>410946.44</v>
       </c>
       <c r="BB41" s="77">
-        <v>364774.96549509</v>
+        <v>364774.97</v>
       </c>
       <c r="BC41" s="77">
-        <v>361923.71433886001</v>
+        <v>361923.71</v>
       </c>
       <c r="BD41" s="77">
-        <v>414108.49976323999</v>
+        <v>414108.5</v>
       </c>
       <c r="BE41" s="78">
-        <v>1551753.6205130001</v>
+        <v>1551753.62</v>
       </c>
       <c r="BF41" s="77">
-        <v>447797.59491957998</v>
+        <v>447797.59</v>
       </c>
       <c r="BG41" s="77">
-        <v>478667.93253191002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478567.14</v>
+      </c>
+      <c r="BH41" s="77">
+        <v>470712.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="80"/>
       <c r="B42" s="111" t="s">
         <v>183</v>
@@ -41936,43 +42554,46 @@
         <v>1584931.2100293231</v>
       </c>
       <c r="AV42" s="77">
-        <v>361507.99751919828</v>
+        <v>361508</v>
       </c>
       <c r="AW42" s="77">
-        <v>349751.07364919264</v>
+        <v>349751.07</v>
       </c>
       <c r="AX42" s="77">
-        <v>384206.4532621408</v>
+        <v>384206.45</v>
       </c>
       <c r="AY42" s="77">
-        <v>385272.38018761593</v>
+        <v>385272.38</v>
       </c>
       <c r="AZ42" s="78">
-        <v>1480737.9046181478</v>
+        <v>1480737.9</v>
       </c>
       <c r="BA42" s="77">
-        <v>342397.11396122002</v>
+        <v>342397.11</v>
       </c>
       <c r="BB42" s="77">
-        <v>312005.04601712001</v>
+        <v>312005.05</v>
       </c>
       <c r="BC42" s="77">
-        <v>309911.19072254997</v>
+        <v>309911.19</v>
       </c>
       <c r="BD42" s="77">
-        <v>356824.70168007998</v>
+        <v>356824.7</v>
       </c>
       <c r="BE42" s="78">
-        <v>1321138.052381</v>
+        <v>1321138.05</v>
       </c>
       <c r="BF42" s="77">
-        <v>382342.14136698999</v>
+        <v>382342.14</v>
       </c>
       <c r="BG42" s="77">
-        <v>404418.66463979997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>404317.87</v>
+      </c>
+      <c r="BH42" s="77">
+        <v>411807.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="111" t="s">
         <v>184</v>
@@ -42113,43 +42734,46 @@
         <v>330646.63483544026</v>
       </c>
       <c r="AV43" s="77">
-        <v>59491.401957096117</v>
+        <v>59491.4</v>
       </c>
       <c r="AW43" s="77">
-        <v>71756.429087337558</v>
+        <v>71756.429999999993</v>
       </c>
       <c r="AX43" s="77">
-        <v>63870.932465614635</v>
+        <v>63870.93</v>
       </c>
       <c r="AY43" s="77">
-        <v>76143.76822767804</v>
+        <v>76143.77</v>
       </c>
       <c r="AZ43" s="78">
-        <v>271262.53173772636</v>
+        <v>271262.53000000003</v>
       </c>
       <c r="BA43" s="77">
-        <v>68549.326954621996</v>
+        <v>68549.33</v>
       </c>
       <c r="BB43" s="77">
-        <v>52769.919477973002</v>
+        <v>52769.919999999998</v>
       </c>
       <c r="BC43" s="77">
-        <v>52012.523616309001</v>
+        <v>52012.52</v>
       </c>
       <c r="BD43" s="77">
-        <v>57283.798083160997</v>
+        <v>57283.8</v>
       </c>
       <c r="BE43" s="78">
-        <v>230615.56813207001</v>
+        <v>230615.57</v>
       </c>
       <c r="BF43" s="77">
-        <v>65455.453552592</v>
+        <v>65455.45</v>
       </c>
       <c r="BG43" s="77">
-        <v>74249.267892114003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74249.27</v>
+      </c>
+      <c r="BH43" s="77">
+        <v>58904.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="80"/>
       <c r="B44" s="81" t="s">
         <v>185</v>
@@ -42290,43 +42914,46 @@
         <v>287692.09543433145</v>
       </c>
       <c r="AV44" s="77">
-        <v>68346.180225026386</v>
+        <v>68346.179999999993</v>
       </c>
       <c r="AW44" s="77">
-        <v>69387.511599600533</v>
+        <v>69387.509999999995</v>
       </c>
       <c r="AX44" s="77">
-        <v>72788.758450502326</v>
+        <v>72788.759999999995</v>
       </c>
       <c r="AY44" s="77">
-        <v>77831.215129362026</v>
+        <v>77831.22</v>
       </c>
       <c r="AZ44" s="78">
-        <v>288353.6654044913</v>
+        <v>288353.67</v>
       </c>
       <c r="BA44" s="77">
-        <v>60703.687590950998</v>
+        <v>60703.69</v>
       </c>
       <c r="BB44" s="77">
-        <v>36333.801290563999</v>
+        <v>36333.800000000003</v>
       </c>
       <c r="BC44" s="77">
-        <v>39126.700602768004</v>
+        <v>39126.699999999997</v>
       </c>
       <c r="BD44" s="77">
-        <v>52248.519524800999</v>
+        <v>52248.52</v>
       </c>
       <c r="BE44" s="78">
-        <v>188412.70900907999</v>
+        <v>188412.71</v>
       </c>
       <c r="BF44" s="77">
-        <v>49606.358542253001</v>
+        <v>49221.06</v>
       </c>
       <c r="BG44" s="77">
-        <v>47658.357152552999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49775.15</v>
+      </c>
+      <c r="BH44" s="77">
+        <v>51091.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="80"/>
       <c r="B45" s="81"/>
       <c r="C45" s="75"/>
@@ -42386,8 +43013,9 @@
       <c r="BE45" s="78"/>
       <c r="BF45" s="77"/>
       <c r="BG45" s="77"/>
-    </row>
-    <row r="46" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH45" s="77"/>
+    </row>
+    <row r="46" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="80"/>
       <c r="B46" s="81" t="s">
         <v>186</v>
@@ -42528,43 +43156,46 @@
         <v>97744.356194639113</v>
       </c>
       <c r="AV46" s="77">
-        <v>15301.822463754565</v>
+        <v>15301.82</v>
       </c>
       <c r="AW46" s="77">
-        <v>50731.365251848474</v>
+        <v>50731.37</v>
       </c>
       <c r="AX46" s="77">
-        <v>33643.166964702774</v>
+        <v>33643.15</v>
       </c>
       <c r="AY46" s="77">
-        <v>-32938.568823653273</v>
+        <v>-32938.58</v>
       </c>
       <c r="AZ46" s="78">
-        <v>66737.785856652539</v>
+        <v>66737.78</v>
       </c>
       <c r="BA46" s="77">
-        <v>25100.054156687002</v>
+        <v>25100.05</v>
       </c>
       <c r="BB46" s="77">
-        <v>46050.200564580002</v>
+        <v>46050.2</v>
       </c>
       <c r="BC46" s="77">
-        <v>29654.124513535</v>
+        <v>29654.12</v>
       </c>
       <c r="BD46" s="77">
-        <v>15758.607638539999</v>
+        <v>15758.61</v>
       </c>
       <c r="BE46" s="78">
-        <v>116562.98687334001</v>
+        <v>116562.98</v>
       </c>
       <c r="BF46" s="77">
-        <v>14976.785582643</v>
+        <v>13641.36</v>
       </c>
       <c r="BG46" s="77">
-        <v>54772.647698351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55565.66</v>
+      </c>
+      <c r="BH46" s="77">
+        <v>26521.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="80"/>
       <c r="B47" s="81"/>
       <c r="C47" s="75"/>
@@ -42624,8 +43255,9 @@
       <c r="BE47" s="78"/>
       <c r="BF47" s="77"/>
       <c r="BG47" s="77"/>
-    </row>
-    <row r="48" spans="1:59" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BH47" s="77"/>
+    </row>
+    <row r="48" spans="1:60" s="73" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="85">
         <v>8</v>
       </c>
@@ -42768,19 +43400,19 @@
         <v>10425851.899999997</v>
       </c>
       <c r="AV48" s="71">
-        <v>2625125.6999999993</v>
+        <v>2625125.7000000002</v>
       </c>
       <c r="AW48" s="71">
-        <v>2735403.1000000006</v>
+        <v>2735403.1</v>
       </c>
       <c r="AX48" s="71">
-        <v>2818721.5000000009</v>
+        <v>2818721.5</v>
       </c>
       <c r="AY48" s="71">
-        <v>2769787.4999999991</v>
+        <v>2769787.5</v>
       </c>
       <c r="AZ48" s="72">
-        <v>10949037.799999999</v>
+        <v>10949037.800000001</v>
       </c>
       <c r="BA48" s="71">
         <v>2703149</v>
@@ -42798,10 +43430,13 @@
         <v>10722442.699999999</v>
       </c>
       <c r="BF48" s="71">
-        <v>2684018.6</v>
+        <v>2683972.1</v>
       </c>
       <c r="BG48" s="71">
-        <v>2772832.2</v>
+        <v>2772861.5</v>
+      </c>
+      <c r="BH48" s="71">
+        <v>2815928.6</v>
       </c>
     </row>
     <row r="49" spans="1:42" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42894,7 +43529,7 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BF4:BG5"/>
+    <mergeCell ref="BF4:BH5"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:K4"/>
